--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52FBEBA-A224-4E98-B6DC-373AAFFBD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8F9C1-E5CE-48E1-A0A2-88CD1CCAD927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1972,7 +1972,7 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8F9C1-E5CE-48E1-A0A2-88CD1CCAD927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373C962-2479-4AAC-9559-82277088D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -54,9 +57,6 @@
     <t>PEM</t>
   </si>
   <si>
-    <t>No Arsip utk gaji harusnya 1 s.d 9 kok munculnya di notifikasi angka 10?</t>
-  </si>
-  <si>
     <t>Migas</t>
   </si>
   <si>
@@ -214,6 +214,54 @@
   </si>
   <si>
     <t>Update fitur #10</t>
+  </si>
+  <si>
+    <t>No Arsip untuk gaji tidak match dengan angka no arsip di notifikasi</t>
+  </si>
+  <si>
+    <t>Penambahan fitur Release dan Support Notes</t>
+  </si>
+  <si>
+    <t>Penambahan fitur</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Penambahan rate limit 1 kali per hari untuk update data Support Release</t>
+  </si>
+  <si>
+    <t>Update fitur</t>
+  </si>
+  <si>
+    <t>1/10/2023  13:35:03 AM</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Penambahan fitur autofetch data pada fitur Support Release</t>
+  </si>
+  <si>
+    <t>Penambahan fitur pagination pada Support Release</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>Perbaikan redaksi SPPD V2 menjadi SPPD</t>
+  </si>
+  <si>
+    <t>Kesalahan redaksi versi</t>
+  </si>
+  <si>
+    <t>Perbaikan redaksi transaksi SPPD V2 menjadi SPPD di Menu Semua Transaksi</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>Update bugfix #25</t>
   </si>
 </sst>
 </file>
@@ -260,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,7 +335,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,14 +981,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -943,7 +1002,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE4B544-CD6B-4F7A-B4EE-9FE733E3C082}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -983,20 +1042,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1005,7 +1069,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39F5467-0FD9-4AAA-8407-69821784743D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1045,20 +1109,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1067,7 +1136,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E4A40B-2004-4F94-81FC-35D682A5BA92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1107,20 +1176,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1129,7 +1203,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE5353C-812D-40E0-8EF7-C79B15C63F6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1169,20 +1243,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1191,7 +1270,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FECCEDF-D469-4EA1-8169-022A929715D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1231,20 +1310,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1253,7 +1337,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB36269A-28B1-44E3-A796-BF9F92351043}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1293,20 +1377,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1315,7 +1404,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8707FFB-21B5-4850-8AD9-48BF60001E80}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1355,20 +1444,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1377,7 +1471,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC2C110-62A9-4E12-A6EB-84A2F81B1496}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1417,20 +1511,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1439,7 +1538,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295E1331-8767-41B8-B89A-0D235AEA05EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1479,20 +1578,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -1501,7 +1605,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E7AAC-1899-43DE-93AA-C715600CD69F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,20 +1645,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1563,7 +1672,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83AE8C9-511F-483F-9B5A-A88875413D6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1603,20 +1712,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1625,7 +1739,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B90268-D3B7-4ED5-A993-5BCFC6AFBC74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1665,7 +1779,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1961,7 +2075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1969,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,12 +2098,12 @@
     <col min="6" max="6" width="29.77734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="69.21875" style="7" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -2006,19 +2120,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>57</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2032,18 +2146,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
         <v>44935.393854050926</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>2.1</v>
       </c>
     </row>
@@ -2055,22 +2169,22 @@
         <v>44935.386104513891</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3">
         <v>44935.393854166665</v>
       </c>
-      <c r="J6" s="10">
-        <v>2.2000000000000002</v>
+      <c r="J6" s="12">
+        <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2081,22 +2195,22 @@
         <v>44930.386104513891</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="I7" s="3">
         <v>44930.393854166665</v>
       </c>
-      <c r="J7" s="10">
-        <v>2.2000000000000002</v>
+      <c r="J7" s="12">
+        <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2110,19 +2224,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <v>44934.393854166665</v>
       </c>
-      <c r="J8" s="10">
-        <v>2.2999999999999998</v>
+      <c r="J8" s="12">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2133,22 +2247,22 @@
         <v>44934.386104513891</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="I9" s="3">
         <v>44934.393854166665</v>
       </c>
-      <c r="J9" s="10">
-        <v>2.2999999999999998</v>
+      <c r="J9" s="12">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2159,21 +2273,21 @@
         <v>44935.386104513891</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="I10" s="3">
         <v>44935.393854050926</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="10">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2185,21 +2299,21 @@
         <v>44934.386104513891</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="I11" s="3">
         <v>44934.393854166665</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="10">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2211,21 +2325,21 @@
         <v>44935.412921064817</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="I12" s="3">
         <v>44935.413824074072</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="12">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2237,21 +2351,21 @@
         <v>44935.412921064817</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="I13" s="3">
         <v>44935.413824074072</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="12">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2266,18 +2380,18 @@
         <v>4</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="I14" s="3">
         <v>44932.413819444446</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="12">
         <v>2.4</v>
       </c>
     </row>
@@ -2289,21 +2403,21 @@
         <v>44932.413819444446</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="3">
         <v>44933.413819444446</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="10">
         <v>2.4</v>
       </c>
     </row>
@@ -2315,21 +2429,21 @@
         <v>44935.428867361108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="I16" s="3">
         <v>44935.430297916668</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="10">
         <v>2.4</v>
       </c>
     </row>
@@ -2341,21 +2455,21 @@
         <v>44935.417199074072</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="I17" s="3">
         <v>44935.437206481482</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="10">
         <v>2.5</v>
       </c>
     </row>
@@ -2367,21 +2481,21 @@
         <v>44935.437608449072</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="3">
         <v>44935.437210648146</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="10">
         <v>2.5</v>
       </c>
     </row>
@@ -2393,21 +2507,21 @@
         <v>44935.438101851854</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="I19" s="3">
         <v>44935.45577025463</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="10">
         <v>2.6</v>
       </c>
     </row>
@@ -2419,21 +2533,21 @@
         <v>44935.455950694442</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="3">
         <v>44935.456553009259</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="10">
         <v>2.6</v>
       </c>
     </row>
@@ -2445,21 +2559,21 @@
         <v>44935.552281597222</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="I21" s="3">
         <v>44935.613193750003</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="10">
         <v>2.7</v>
       </c>
     </row>
@@ -2471,21 +2585,21 @@
         <v>44935.613376041663</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3">
         <v>44935.61597835648</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="10">
         <v>2.7</v>
       </c>
     </row>
@@ -2497,21 +2611,21 @@
         <v>44935.613376041663</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="I23" s="3">
         <v>44936.365005208332</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="10">
         <v>2.8</v>
       </c>
     </row>
@@ -2523,25 +2637,200 @@
         <v>44936.365637152776</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" s="3">
         <v>44936.366567592595</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="10">
         <v>2.8</v>
       </c>
     </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44936.40730324074</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44936.482673611114</v>
+      </c>
+      <c r="J25" s="10">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44936.482421064815</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44936.579013310184</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="3">
+        <v>44936.582123958331</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44936.581720486109</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44937.408474537035</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44937.355685416667</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="3">
+        <v>44937.356564699076</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44937.428449652776</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44937.429155092592</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3C6E0-B81D-4ED4-8835-95C057900061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8B820-7AC1-4984-B376-EC419C09362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>2.17</t>
+  </si>
+  <si>
+    <t>Update tanggal bayar harus mengupdate no arsip juga. Seharusnya bisa salah satu.</t>
+  </si>
+  <si>
+    <t>Tgl bayar dan no arsip required</t>
+  </si>
+  <si>
+    <t>Tgl bayar dan no arsip dibuat opsional. Bisa update salah satu saja</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>Update bugfix #34</t>
   </si>
 </sst>
 </file>
@@ -715,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,6 +1735,64 @@
       </c>
       <c r="J37" s="10" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44942.53377303241</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="3">
+        <v>44942.546411342591</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44942.546568749996</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44942.546983101849</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8B820-7AC1-4984-B376-EC419C09362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B469C6-1826-4AD1-BEAF-1E4CA5FBE224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -334,6 +334,36 @@
   </si>
   <si>
     <t>Update bugfix #34</t>
+  </si>
+  <si>
+    <t>Aparatur</t>
+  </si>
+  <si>
+    <t>Tidak bisa upload anggaran</t>
+  </si>
+  <si>
+    <t>Extensi file upload salah</t>
+  </si>
+  <si>
+    <t>Menginfokan user utk menyimpan ke format xlsx bukan xls</t>
+  </si>
+  <si>
+    <t>Kesalahan redaksi di dashboard : Rengkas SP2D -&gt; Realisasi SP2D</t>
+  </si>
+  <si>
+    <t>Bug/Salah ketik</t>
+  </si>
+  <si>
+    <t>Update Fix</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>Statistik dashboard rerata waktu proses dan waktu proses transaksi tidak muncul datanya</t>
+  </si>
+  <si>
+    <t>2.20</t>
   </si>
 </sst>
 </file>
@@ -730,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J39"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1823,93 @@
       </c>
       <c r="J39" s="10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44943.838240740741</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="3">
+        <v>44944.338645833333</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44950.370423263892</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="3">
+        <v>44950.375348032409</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44950.371357407406</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="3">
+        <v>44950.375452777778</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B469C6-1826-4AD1-BEAF-1E4CA5FBE224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA07B6E-C5EF-4883-968E-704082D95E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t>2.20</t>
+  </si>
+  <si>
+    <t>Update bugfix #38</t>
+  </si>
+  <si>
+    <t>Data menu support release tidak muncul</t>
+  </si>
+  <si>
+    <t>2.21</t>
   </si>
 </sst>
 </file>
@@ -760,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J42"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,6 +1919,64 @@
       </c>
       <c r="J42" s="10" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44950.391869791667</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44950.392239120367</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44950.411545833333</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="3">
+        <v>44950.412128587966</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA07B6E-C5EF-4883-968E-704082D95E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD07F6-91F3-41CB-8EE7-F05B87EF1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="rules" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -373,6 +373,45 @@
   </si>
   <si>
     <t>2.21</t>
+  </si>
+  <si>
+    <t>Support Rules</t>
+  </si>
+  <si>
+    <t>1. Support terpusat di 1 orang, bisa IT atau keuangan. Salah satu saja. Jadi jika ada bug/pertanyaan bisa ke orang tersebut sebagai PIC nanti PIC meneruskan ke kami.</t>
+  </si>
+  <si>
+    <t>2. Komunikasi terkait bug report atau update dilakukan via whatsapp message saja dan ditangani pada hari dan jam kerja.</t>
+  </si>
+  <si>
+    <t>3. Update bugfix tersentralisasi dan bugfix di 1 klien akan diterapkan di seluruh klien.</t>
+  </si>
+  <si>
+    <t>4. List bugfix release dan updates akan disediakan di menu Laporan &gt; Report Release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Jika memungkinkan update fitur yang didanai 1 klien akan diberikan ke seluruh klien yang terkait dengan klien tersebut secara gratis </t>
+  </si>
+  <si>
+    <t>6. Limit ticket support per klien(baik berupa report bugfix maupun pertanyaan/diskusi adalah 5 kali per bulan. Lebih dari itu tidak ada pembatasan tapi respon menyesuaian resource kami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Klien tidak diijinkan mengubah source code dan database sendiri selama masih dalam waktu langganan support </t>
+  </si>
+  <si>
+    <t>8. Kami berhak untuk melakukan perubahan/perbaikan/migrasi data atau struktur data terkait dengan maintenance sistem tanpa pemberitahuan dan dapat dilakukan sewaktu-waktu</t>
+  </si>
+  <si>
+    <t>9. Klien self-hosting harus memiliki mekanisme backup data dan files (sebaiknya min. daily) sehingga ketika dibutuhkan dapat dikembalikan</t>
+  </si>
+  <si>
+    <t>10. Kerusakan/kehilangan data akibat maintenance dan atau update bukan tanggung jawab kami</t>
+  </si>
+  <si>
+    <t>11. Hal-hal lain yang belum diatur akan kami putuskan menyesuaikan situasi dan kondisi kami pada saat itu</t>
+  </si>
+  <si>
+    <t>Versi 1.1</t>
   </si>
 </sst>
 </file>
@@ -419,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +494,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C27" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -1988,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
-  <dimension ref="C6:C13"/>
+  <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,41 +2040,82 @@
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
-        <v>44935.386104513891</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>44930.386104513891</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
-        <v>44934.386104513891</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
-        <v>44934.386104513891</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
-        <v>44935.386104513891</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD07F6-91F3-41CB-8EE7-F05B87EF1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7D432-0508-4749-8100-B13F215F4339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -412,6 +412,27 @@
   </si>
   <si>
     <t>Versi 1.1</t>
+  </si>
+  <si>
+    <t>Update support rules di Menu Laporan Support Release</t>
+  </si>
+  <si>
+    <t>Update Fitur</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>Akun DL.6344.SAG.501.052.G.163.525115 tidak bisa utk transaksi</t>
+  </si>
+  <si>
+    <t>Belum ditemukan</t>
+  </si>
+  <si>
+    <t>Tes input transaksi bisa dilakukan</t>
+  </si>
+  <si>
+    <t>Preview file di detail height-nya terlalu kecil di layar resolusi tinggi</t>
   </si>
 </sst>
 </file>
@@ -810,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,6 +2041,93 @@
         <v>110</v>
       </c>
     </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44950.610205324076</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44951.405338194447</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44950.662232523151</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44951.405470370373</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44950.653263888889</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44950.663526273151</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
   <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7D432-0508-4749-8100-B13F215F4339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1922D-4097-48CE-8629-3D099161FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
-    <sheet name="rules" sheetId="2" r:id="rId2"/>
+    <sheet name="request" sheetId="3" r:id="rId2"/>
+    <sheet name="rules" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
   <si>
     <t>No</t>
   </si>
@@ -433,6 +434,90 @@
   </si>
   <si>
     <t>Preview file di detail height-nya terlalu kecil di layar resolusi tinggi</t>
+  </si>
+  <si>
+    <t>Sebagian data dashboard tidak keluar : rerata waktu dan rerata waktu konkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export excel transaksi gagal </t>
+  </si>
+  <si>
+    <t>Dependensi SheetJS blm dikasih</t>
+  </si>
+  <si>
+    <t>Ditambahkan dependensi</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview sudah tampak besar tapi list file lain tertutup di bawah </t>
+  </si>
+  <si>
+    <t>Perubahan redaksi di dashboard : Waktu proses transaksi =&gt; Rerata Waktu Proses Per Konkin</t>
+  </si>
+  <si>
+    <t>Perubahan query data dashboard : BK on Process tidak termasuk BK Ditolak</t>
+  </si>
+  <si>
+    <t>Preview file excel tidak didukung</t>
+  </si>
+  <si>
+    <t>Preview detail hanya tersedia untuk file pdf dan gambar</t>
+  </si>
+  <si>
+    <t>Menginfokan user bahwa preview hanya tersedia untuk pdf dan gambar</t>
+  </si>
+  <si>
+    <t>Redaksi Tabel di dashboard bisa dibaca ambigu</t>
+  </si>
+  <si>
+    <t>Mengubah redaksi kolom Bulan =&gt; Bulan (Kumulatif)</t>
+  </si>
+  <si>
+    <t>Pembacaan grafik kurang jelas</t>
+  </si>
+  <si>
+    <t>Mengubah grafik line yang secara default-nya enabled hanya Renkas Semula dan Realisasi SPM</t>
+  </si>
+  <si>
+    <t>Pemisahan PPh di user op kasir di menu transaksi menunggu dan transaksi terbayar</t>
+  </si>
+  <si>
+    <t>Request Pengembangan</t>
+  </si>
+  <si>
+    <t>Selesai</t>
+  </si>
+  <si>
+    <t>belum</t>
+  </si>
+  <si>
+    <t>Waktu Selesai</t>
+  </si>
+  <si>
+    <t>Update bugfix #46 dan #45</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Update bugs #51 yang belum selesai atau terbalik</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>Perubahan update #53 menjadi Renkas Revisi dan Realisasi SPM</t>
+  </si>
+  <si>
+    <t>2.28</t>
   </si>
 </sst>
 </file>
@@ -479,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +602,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J47"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,6 +2217,328 @@
         <v>126</v>
       </c>
     </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44951.616999421298</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="3">
+        <v>44951.624959259258</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44951.491168981483</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44951.625156134258</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44952.420016319447</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44957.38970925926</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44957.389495370371</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44957.389804166669</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44952.451954976852</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44957.390174768516</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44952.546576620371</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44957.390602893516</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44952.714513888888</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="2">
+        <v>44952.715902777774</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44957.391038657406</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44957.391587962964</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44958.398888888885</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="2">
+        <v>44958.482222222221</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44958.398888888885</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="2">
+        <v>44958.482222222221</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44959.358236689812</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="3">
+        <v>44959.363564467596</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H59" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,6 +2547,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
+  <dimension ref="B3:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>44953.580093402779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
   <dimension ref="B3:C16"/>
   <sheetViews>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB1922D-4097-48CE-8629-3D099161FD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEAA17-EC66-48A9-87E0-B2CF373E05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>2.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error pembacaan row kosong dari data support release </t>
+  </si>
+  <si>
+    <t>Filter value null agar tidak disimpan/ditampilkan</t>
+  </si>
+  <si>
+    <t>2.29</t>
   </si>
 </sst>
 </file>
@@ -922,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,7 +2546,33 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H59" s="7"/>
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44959.577650462961</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44959.62334085648</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BEAA17-EC66-48A9-87E0-B2CF373E05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC58D0-69D9-46D3-B524-CDD94B2A20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="173">
   <si>
     <t>No</t>
   </si>
@@ -527,6 +527,39 @@
   </si>
   <si>
     <t>2.29</t>
+  </si>
+  <si>
+    <t>BDTBT</t>
+  </si>
+  <si>
+    <t>Ketika mau transaksi muncul error undefined index parent</t>
+  </si>
+  <si>
+    <t>Memberitahu user untuk menhapus konkin pada row anggaran non akun</t>
+  </si>
+  <si>
+    <t>Report bahwa export excel SPPD tidak lagi muncul tanggal perjalanan dinas di update terbaru</t>
+  </si>
+  <si>
+    <t>Perubahan modul di SPPD</t>
+  </si>
+  <si>
+    <t>Update API agar mengakomodasi tgl perjalanan jika export di Mauren dan ignore jika di satker lain</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>Update Fitur #57</t>
+  </si>
+  <si>
+    <t>Upload file max 3 MB perlu hingga 10 MB</t>
+  </si>
+  <si>
+    <t>Update Server</t>
+  </si>
+  <si>
+    <t>Meningkatkan batas upload ke 10MB</t>
   </si>
 </sst>
 </file>
@@ -921,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -929,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2572,6 +2605,122 @@
       </c>
       <c r="J59" s="10" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44960.596805555557</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="2">
+        <v>44960.611388888887</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44961.422199074077</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="3">
+        <v>44963.431021643519</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44963.431282523146</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="3">
+        <v>44963.442947916665</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44964.505196759259</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="3">
+        <v>44964.589384837964</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABC58D0-69D9-46D3-B524-CDD94B2A20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0D3DA-3032-4D97-8D3F-E83E26073E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="176">
   <si>
     <t>No</t>
   </si>
@@ -560,6 +560,15 @@
   </si>
   <si>
     <t>Meningkatkan batas upload ke 10MB</t>
+  </si>
+  <si>
+    <t>Penambahan fitur pengelompokan PPh sesuai jenisnya di modul kasir terbayar beserta exportnya</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>Update Fitur #60</t>
   </si>
 </sst>
 </file>
@@ -962,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,6 +2730,64 @@
       </c>
       <c r="J63" s="10" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44970.5856712963</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="3">
+        <v>44970.628190740739</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>61</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44970.62840671296</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="3">
+        <v>44970.628802777777</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0D3DA-3032-4D97-8D3F-E83E26073E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8A3DF-0B73-4E7D-A936-DD56A6FE7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="179">
   <si>
     <t>No</t>
   </si>
@@ -569,6 +569,15 @@
   </si>
   <si>
     <t>Update Fitur #60</t>
+  </si>
+  <si>
+    <t>Bug di Statistik Rerata Waktu Proses dan Waktu proses per konkin tidak muncul di beberapa satker dan algoritma perlu perbaikan</t>
+  </si>
+  <si>
+    <t>Memperbaiki algoritma statistik dan mengubah perhitungan dari query based menjadi server code based</t>
+  </si>
+  <si>
+    <t>2.32</t>
   </si>
 </sst>
 </file>
@@ -971,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J65"/>
+  <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2788,6 +2797,35 @@
       </c>
       <c r="J65" s="10" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44971.505162037036</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="3">
+        <v>44971.668738425928</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8A3DF-0B73-4E7D-A936-DD56A6FE7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216C371-0E15-4578-ABD1-0ABB7371784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="196">
   <si>
     <t>No</t>
   </si>
@@ -578,6 +578,57 @@
   </si>
   <si>
     <t>2.32</t>
+  </si>
+  <si>
+    <t>Pertanyaan soal menu realisasi SPM</t>
+  </si>
+  <si>
+    <t>Belum ada menu</t>
+  </si>
+  <si>
+    <t>Bisa menjadi masukan utk pengembangan ke depan</t>
+  </si>
+  <si>
+    <t>Cara pindah MAK transaksi dan limitasinya</t>
+  </si>
+  <si>
+    <t>Kebutuhan pindah MAK</t>
+  </si>
+  <si>
+    <t>Memberitahu user cara melakukan pindah MAK transaksi dan limitasinya</t>
+  </si>
+  <si>
+    <t>Error detail transaksi tidak dapat dibuka</t>
+  </si>
+  <si>
+    <t>Ada spesial karakter di data</t>
+  </si>
+  <si>
+    <t>Menghapus spesial karakter, dlm hal ini tab ketika menyimpan transaksi</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>Rekap transaksi tidak dapat dibuka</t>
+  </si>
+  <si>
+    <t>Gagal parsing karena spesial karakter</t>
+  </si>
+  <si>
+    <t>Proteksi ketika ada spesial karakter</t>
+  </si>
+  <si>
+    <t>Update bugfix #65 dan #67</t>
+  </si>
+  <si>
+    <t>Pertanyaan jika ganti konkin apakah akan merubah statistik perhitungan waktu proses transaksi</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ganti konkin tidak mengubah statistik perhitungan waktu transaksi</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J66"/>
+  <dimension ref="B2:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,6 +2877,180 @@
       </c>
       <c r="J66" s="10" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>63</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44972.337766203702</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="3">
+        <v>44972.338634259257</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="1">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44972.421099537038</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="2">
+        <v>44972.422488425924</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44972.359293981484</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="2">
+        <v>44972.400960648149</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44972.525960648149</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="2">
+        <v>44972.650960648149</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>67</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44972.400960648149</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="2">
+        <v>44972.402349537035</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>68</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44973.709953703707</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44973.837731481479</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216C371-0E15-4578-ABD1-0ABB7371784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AEB5B-691D-49FD-B006-0DD5501D3532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="199">
   <si>
     <t>No</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>Ganti konkin tidak mengubah statistik perhitungan waktu transaksi</t>
+  </si>
+  <si>
+    <t>Laporan realisasi tidak muncul</t>
+  </si>
+  <si>
+    <t>Config url ada yg terlewat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update config </t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J72"/>
+  <dimension ref="B2:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,6 +3059,35 @@
         <v>44973.837731481479</v>
       </c>
       <c r="J72" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>69</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44974.427233333336</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="3">
+        <v>44974.435685416669</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>188</v>
       </c>
     </row>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203AEB5B-691D-49FD-B006-0DD5501D3532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336598C-7D95-4359-8C71-173497DD3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -638,6 +638,21 @@
   </si>
   <si>
     <t xml:space="preserve">Update config </t>
+  </si>
+  <si>
+    <t>Pajak honor tidak muncul di grouping pajak tabel transaksi terbayar op kasir</t>
+  </si>
+  <si>
+    <t>Pajak honor tidak masuk tabel pajak</t>
+  </si>
+  <si>
+    <t>Membuat algoritma parsing pajak honor dan mengupdate tabel transaksi terbayar kasir</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>Update bugfix #70</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J73"/>
+  <dimension ref="B2:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3089,6 +3104,64 @@
       </c>
       <c r="J73" s="10" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>70</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44978.390648148146</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" s="3">
+        <v>44978.620657175925</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="1">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44978.620859953706</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="3">
+        <v>44978.621276736114</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3336598C-7D95-4359-8C71-173497DD3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A614617-8C30-43FF-9767-4503D3CD10CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
   <si>
     <t>No</t>
   </si>
@@ -653,6 +653,30 @@
   </si>
   <si>
     <t>Update bugfix #70</t>
+  </si>
+  <si>
+    <t>Tabel transaksi belum terbayar error tidak menampilkan data</t>
+  </si>
+  <si>
+    <t>Gagal encode data</t>
+  </si>
+  <si>
+    <t>Replace special character</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>Update Bugfix #72</t>
+  </si>
+  <si>
+    <t>Transaksi hilang/nyangkut no BK 2302000463</t>
+  </si>
+  <si>
+    <t>Belum diapprove</t>
+  </si>
+  <si>
+    <t>Info ke user bahwa belum diapprove Koordinator</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J75"/>
+  <dimension ref="B2:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3162,6 +3186,93 @@
       </c>
       <c r="J75" s="10" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="1">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44979.372459837963</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I76" s="3">
+        <v>44979.458771296297</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="1">
+        <v>73</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44979.404976851853</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="3">
+        <v>44979.461762847219</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
+        <v>74</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44979.459144560184</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="3">
+        <v>44979.460765393516</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A614617-8C30-43FF-9767-4503D3CD10CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B687AE8-96D9-497B-A09D-62BC6CB5C2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="219">
   <si>
     <t>No</t>
   </si>
@@ -677,6 +677,27 @@
   </si>
   <si>
     <t>Info ke user bahwa belum diapprove Koordinator</t>
+  </si>
+  <si>
+    <t>Jumlah BK di dashboard tidak match</t>
+  </si>
+  <si>
+    <t>Ada transaksi saldo di DB</t>
+  </si>
+  <si>
+    <t>Menghapus transaksi saldo dari DB</t>
+  </si>
+  <si>
+    <t>Disable Menu Saldo di role Bendahara Pengeluaran</t>
+  </si>
+  <si>
+    <t>Prevent Bug #75</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Update Bugfix #76</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J78"/>
+  <dimension ref="B2:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3273,6 +3294,93 @@
       </c>
       <c r="J78" s="10" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>75</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44979.475874768519</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="3">
+        <v>44979.476466666667</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44979.476691435186</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I80" s="3">
+        <v>44979.493354745369</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>77</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44979.490578703706</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" s="3">
+        <v>44979.566123611112</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B687AE8-96D9-497B-A09D-62BC6CB5C2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6E7B3-0663-4F95-AE9A-15BA1B6A4D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
   <si>
     <t>No</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Selesai</t>
   </si>
   <si>
-    <t>belum</t>
-  </si>
-  <si>
     <t>Waktu Selesai</t>
   </si>
   <si>
@@ -698,6 +695,57 @@
   </si>
   <si>
     <t>Update Bugfix #76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desain struktur data renkas mingguan dan bulanan </t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan app untuk mengelola download source code </t>
+  </si>
+  <si>
+    <t>Custom request</t>
+  </si>
+  <si>
+    <t>Penyerahan akun link source code Migas</t>
+  </si>
+  <si>
+    <t>Update SC versi 2.36</t>
+  </si>
+  <si>
+    <t>Custom Request</t>
+  </si>
+  <si>
+    <t>Update SC</t>
+  </si>
+  <si>
+    <t>Import renkas mingguan yang pertama bisa menggunakan excel utk memudahkan</t>
+  </si>
+  <si>
+    <t>sum tabel per tahapan di rekap transaksi</t>
+  </si>
+  <si>
+    <t>Rekap transaksi ditambah filter Progres Transaksi. Dan filter row BLU, RM</t>
+  </si>
+  <si>
+    <t>Sum Total di dashboard salah jumlah di tabel renkas</t>
+  </si>
+  <si>
+    <t>Realisasi SPM dan SP2D di Menu Laporan</t>
+  </si>
+  <si>
+    <t>Development renkas</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Pembuatan struktur DB Renkas</t>
+  </si>
+  <si>
+    <t>Penambahan last_update timestamp ke tabel renkas</t>
   </si>
 </sst>
 </file>
@@ -782,10 +830,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J81"/>
+  <dimension ref="B2:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2529,7 @@
         <v>44957.38970925926</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2495,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>47</v>
@@ -2510,7 +2558,7 @@
         <v>44957.389804166669</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2539,7 +2587,7 @@
         <v>44957.390174768516</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2568,7 +2616,7 @@
         <v>44957.390602893516</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2597,7 +2645,7 @@
         <v>44952.715902777774</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -2611,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>47</v>
@@ -2626,7 +2674,7 @@
         <v>44957.391587962964</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
@@ -2655,7 +2703,7 @@
         <v>44958.482222222221</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2684,7 +2732,7 @@
         <v>44958.482222222221</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
@@ -2698,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>39</v>
@@ -2713,7 +2761,7 @@
         <v>44959.363564467596</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -2727,13 +2775,13 @@
         <v>15</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>61</v>
@@ -2742,7 +2790,7 @@
         <v>44959.62334085648</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
@@ -2753,16 +2801,16 @@
         <v>44960.596805555557</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>61</v>
@@ -2771,7 +2819,7 @@
         <v>44960.611388888887</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2785,13 +2833,13 @@
         <v>4</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>61</v>
@@ -2800,7 +2848,7 @@
         <v>44963.431021643519</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -2814,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>125</v>
@@ -2829,7 +2877,7 @@
         <v>44963.442947916665</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -2843,13 +2891,13 @@
         <v>4</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>61</v>
@@ -2858,7 +2906,7 @@
         <v>44964.589384837964</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2872,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>39</v>
@@ -2887,7 +2935,7 @@
         <v>44970.628190740739</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
@@ -2901,7 +2949,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>39</v>
@@ -2916,7 +2964,7 @@
         <v>44970.628802777777</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2930,13 +2978,13 @@
         <v>15</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>61</v>
@@ -2945,7 +2993,7 @@
         <v>44971.668738425928</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
@@ -2959,13 +3007,13 @@
         <v>4</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>61</v>
@@ -2974,7 +3022,7 @@
         <v>44972.338634259257</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
@@ -2988,13 +3036,13 @@
         <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>61</v>
@@ -3003,7 +3051,7 @@
         <v>44972.422488425924</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
@@ -3017,13 +3065,13 @@
         <v>12</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>61</v>
@@ -3032,7 +3080,7 @@
         <v>44972.400960648149</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3046,13 +3094,13 @@
         <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>61</v>
@@ -3061,7 +3109,7 @@
         <v>44972.650960648149</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -3075,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>47</v>
@@ -3090,7 +3138,7 @@
         <v>44972.402349537035</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3104,13 +3152,13 @@
         <v>12</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>61</v>
@@ -3119,7 +3167,7 @@
         <v>44973.837731481479</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -3130,16 +3178,16 @@
         <v>44974.427233333336</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>61</v>
@@ -3148,7 +3196,7 @@
         <v>44974.435685416669</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3162,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>61</v>
@@ -3177,7 +3225,7 @@
         <v>44978.620657175925</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
@@ -3191,7 +3239,7 @@
         <v>15</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>47</v>
@@ -3206,7 +3254,7 @@
         <v>44978.621276736114</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -3220,13 +3268,13 @@
         <v>98</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>61</v>
@@ -3235,7 +3283,7 @@
         <v>44979.458771296297</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -3249,13 +3297,13 @@
         <v>22</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>61</v>
@@ -3264,7 +3312,7 @@
         <v>44979.461762847219</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -3278,7 +3326,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>47</v>
@@ -3293,7 +3341,7 @@
         <v>44979.460765393516</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -3307,13 +3355,13 @@
         <v>98</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>61</v>
@@ -3322,7 +3370,7 @@
         <v>44979.476466666667</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
@@ -3336,13 +3384,13 @@
         <v>98</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>61</v>
@@ -3351,7 +3399,7 @@
         <v>44979.493354745369</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
@@ -3365,7 +3413,7 @@
         <v>15</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>47</v>
@@ -3380,7 +3428,181 @@
         <v>44979.566123611112</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="1">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44981.370520833334</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I82" s="2">
+        <v>44981.57885416667</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44981.580243055556</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="2">
+        <v>44982.413576388892</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44981.358483796299</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="3">
+        <v>44981.486296296294</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44982.413576388892</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="2">
+        <v>44982.413576388892</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44982.413576388892</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" s="2">
+        <v>44982.413576388892</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44984.36225416667</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" s="3">
+        <v>44984.363412847226</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3392,22 +3614,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
-  <dimension ref="B3:G5"/>
+  <dimension ref="B3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3415,7 +3638,7 @@
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -3424,18 +3647,18 @@
       <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="3">
         <v>44953.580093402779</v>
       </c>
       <c r="D5" t="s">
@@ -3444,8 +3667,78 @@
       <c r="E5" t="s">
         <v>146</v>
       </c>
-      <c r="F5" t="s">
-        <v>149</v>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44981.408356481479</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44981.408356481479</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44981.408356481479</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44981.408356481479</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44981.408356481479</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3752,7 @@
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6E7B3-0663-4F95-AE9A-15BA1B6A4D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8127226-8592-4CE6-A1BC-ACE2247EA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="request" sheetId="3" r:id="rId2"/>
     <sheet name="rules" sheetId="2" r:id="rId3"/>
+    <sheet name="rencana" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="266">
   <si>
     <t>No</t>
   </si>
@@ -746,6 +747,99 @@
   </si>
   <si>
     <t>Penambahan last_update timestamp ke tabel renkas</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>Waktu Request</t>
+  </si>
+  <si>
+    <t>Waktu Input</t>
+  </si>
+  <si>
+    <t>Export Excel Template Renkas</t>
+  </si>
+  <si>
+    <t>Import Excel Template Renkas</t>
+  </si>
+  <si>
+    <t>Pembuatan Scheduler Input Renkas</t>
+  </si>
+  <si>
+    <t>Implementasi scheduler ke editor renkas :</t>
+  </si>
+  <si>
+    <t>1. Implementasi scheduler tipe renkas semula</t>
+  </si>
+  <si>
+    <t>2. Implementasi scheduler tipe renkas revisi</t>
+  </si>
+  <si>
+    <t>Penerapan nilai realisasi ketika update renkas revisi</t>
+  </si>
+  <si>
+    <t>Export Import Renkas Editor</t>
+  </si>
+  <si>
+    <t>Membuat modul view rencana pengembangan</t>
+  </si>
+  <si>
+    <t>Penerapan nilai pagu dan validasi total renkas pada renkas editor</t>
+  </si>
+  <si>
+    <t>Pembuatan Renkas Editor per konkin</t>
+  </si>
+  <si>
+    <t>Pembuatan Renkas Editor di Keuangan untuk semua konkin</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>Rencana Aktivitas</t>
+  </si>
+  <si>
+    <t>Pembuatan modul laporan realisasi versi SPM dan SP2D dg filter tanggal</t>
+  </si>
+  <si>
+    <t>Pendampingan Implementasi SIK di PPSDM Aparatur</t>
+  </si>
+  <si>
+    <t>Kendala Implementasi</t>
+  </si>
+  <si>
+    <t>Pendampingan Operasi dan pemberian solusi teknis</t>
+  </si>
+  <si>
+    <t>Akun ada yang tidak bisa diakses</t>
+  </si>
+  <si>
+    <t>Pengaturan sudah benar tapi belum diklik terapkan</t>
+  </si>
+  <si>
+    <t>Mengeklik terapkan anggaran yang aktif</t>
+  </si>
+  <si>
+    <t>Perlu mengetahui realisasi SPM dan SP2D di SIK</t>
+  </si>
+  <si>
+    <t>Menambahkan realisasi SPM dan SP2D pada laporan</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>selesai</t>
+  </si>
+  <si>
+    <t>Tab baru setelah klik akun ketika mau buat anggaran</t>
+  </si>
+  <si>
+    <t>Pembuatan view editor renkas versi keuangan part 1</t>
   </si>
 </sst>
 </file>
@@ -792,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +928,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J87"/>
+  <dimension ref="B2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3515,7 +3611,7 @@
         <v>44981.486296296294</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
@@ -3544,7 +3640,7 @@
         <v>44982.413576388892</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
@@ -3573,7 +3669,7 @@
         <v>44982.413576388892</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
@@ -3602,7 +3698,123 @@
         <v>44984.363412847226</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>216</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>84</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44984.383611111109</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" s="3">
+        <v>44984.645254282404</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>85</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44984.521145833336</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" s="3">
+        <v>44984.646397569442</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>85</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44984.625324074077</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="3">
+        <v>44984.657196296299</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
+        <v>86</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44984.646665509259</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I91" s="3">
+        <v>44984.65042002315</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3617,16 +3829,17 @@
   <dimension ref="B3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="69.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -3639,9 +3852,9 @@
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -3661,7 +3874,7 @@
       <c r="C5" s="3">
         <v>44953.580093402779</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
@@ -3669,6 +3882,9 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44932.413819444446</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -3684,6 +3900,7 @@
       <c r="E6" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -3698,6 +3915,7 @@
       <c r="E7" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -3712,6 +3930,7 @@
       <c r="E8" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -3726,6 +3945,7 @@
       <c r="E9" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3740,6 +3960,7 @@
       <c r="E10" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,4 +4059,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
+  <dimension ref="B3:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44984.517227546297</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44984.625917824073</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44984.657637847224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8127226-8592-4CE6-A1BC-ACE2247EA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAEF58-B560-40F8-B899-FE479F5C189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="272">
   <si>
     <t>No</t>
   </si>
@@ -833,13 +833,31 @@
     <t>2.38</t>
   </si>
   <si>
-    <t>selesai</t>
-  </si>
-  <si>
     <t>Tab baru setelah klik akun ketika mau buat anggaran</t>
   </si>
   <si>
     <t>Pembuatan view editor renkas versi keuangan part 1</t>
+  </si>
+  <si>
+    <t>Akun 1915.EBA.994.002.Q.522141 tidak dapat diakses</t>
+  </si>
+  <si>
+    <t>Akses belum diaktifkan</t>
+  </si>
+  <si>
+    <t>Memberitahu user untuk mengaktifkan akses di anggaran</t>
+  </si>
+  <si>
+    <t>APARATUR</t>
+  </si>
+  <si>
+    <t>Pembuatan tabel seluruh transaksi terbayar dengan filter sebagai bahan untuk menyusun BKU</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -886,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,8 +946,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J91"/>
+  <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A74" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3712,7 +3728,7 @@
         <v>232</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>219</v>
@@ -3814,6 +3830,35 @@
         <v>44984.65042002315</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>87</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44984.673055555555</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="3">
+        <v>44985.243208333333</v>
+      </c>
+      <c r="J92" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4063,203 +4108,302 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:F18"/>
+  <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>44984.456495949074</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>44984.517227546297</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>44984.518630787039</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>44984.518630787039</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>44984.518630787039</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>44984.518630787039</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>44984.518630787039</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>44984.625917824073</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" t="s">
         <v>253</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44984.657637847224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44984.625917824073</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="2">
-        <v>44984.657637847224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="17" t="s">
-        <v>264</v>
+      <c r="F18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44985.337925347223</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAEF58-B560-40F8-B899-FE479F5C189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE20104-D75A-48F9-BB95-EFC97E22A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="286">
   <si>
     <t>No</t>
   </si>
@@ -782,9 +782,6 @@
     <t>Export Import Renkas Editor</t>
   </si>
   <si>
-    <t>Membuat modul view rencana pengembangan</t>
-  </si>
-  <si>
     <t>Penerapan nilai pagu dan validasi total renkas pada renkas editor</t>
   </si>
   <si>
@@ -858,6 +855,51 @@
   </si>
   <si>
     <t>complete</t>
+  </si>
+  <si>
+    <t>Butuh contoh DB untuk update</t>
+  </si>
+  <si>
+    <t>Memberikan contoh DB dari satker lain</t>
+  </si>
+  <si>
+    <t>Update fitur #85</t>
+  </si>
+  <si>
+    <t>Bugfix redaksi laporan SP2D</t>
+  </si>
+  <si>
+    <t>Salah redaksi SP2D bukan SPM</t>
+  </si>
+  <si>
+    <t>Perbaikan redaksi pada laporan SP2D</t>
+  </si>
+  <si>
+    <t>Pembuatan fitur Activity Plan pada menu Support Release</t>
+  </si>
+  <si>
+    <t>Developer initiative</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>Update Fitur #91</t>
+  </si>
+  <si>
+    <t>Membuat modul Activity Plan di Support Release</t>
+  </si>
+  <si>
+    <t>Pendampingan Implementasi SIK di PPSDM Aparatur hari ke-2</t>
+  </si>
+  <si>
+    <t>Update source code dan pemberian contoh DB minus transaksi</t>
+  </si>
+  <si>
+    <t>Pembuatan fitur notifikasi popup di dashboard ketika scheduler aktif dan renkas belum update</t>
+  </si>
+  <si>
+    <t>Pemberian informasi list konkin yang belum melakukan update pada popup notifikasi</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J92"/>
+  <dimension ref="B2:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98:I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3728,7 +3770,7 @@
         <v>232</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>219</v>
@@ -3757,13 +3799,13 @@
         <v>98</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>61</v>
@@ -3786,13 +3828,13 @@
         <v>98</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>219</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>61</v>
@@ -3801,7 +3843,7 @@
         <v>44984.657196296299</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3815,13 +3857,13 @@
         <v>98</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>61</v>
@@ -3830,7 +3872,7 @@
         <v>44984.65042002315</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
@@ -3844,13 +3886,13 @@
         <v>98</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>61</v>
@@ -3859,7 +3901,202 @@
         <v>44985.243208333333</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>88</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44985.395892708337</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="J93" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>89</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44985.409307407404</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" s="3">
+        <v>44985.410190509261</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>90</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44985.396645370369</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" s="3">
+        <v>44985.552505902779</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>91</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44985.42763888889</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" s="3">
+        <v>44985.553685300925</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>92</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44985.553843402777</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" s="3">
+        <v>44985.554113425926</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44985.396645370369</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" s="3">
+        <v>44985.587797569446</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>94</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44985.556502430554</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" s="3">
+        <v>44985.587797569446</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4108,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4124,7 +4361,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4142,7 +4379,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>149</v>
@@ -4159,10 +4396,13 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44985.554659837966</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -4176,10 +4416,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -4196,7 +4436,7 @@
         <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -4213,7 +4453,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -4227,10 +4467,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -4244,10 +4484,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -4264,7 +4504,7 @@
         <v>245</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -4281,7 +4521,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -4298,7 +4538,7 @@
         <v>241</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -4315,7 +4555,7 @@
         <v>242</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -4332,7 +4572,7 @@
         <v>243</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -4349,7 +4589,7 @@
         <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -4360,13 +4600,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G17" s="2">
         <v>44984.657637847224</v>
@@ -4380,13 +4620,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -4400,10 +4640,44 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>270</v>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44985.557593865742</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44985.558699768517</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE20104-D75A-48F9-BB95-EFC97E22A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E71C90-E17D-43D2-A72A-45B6ACEAE779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="293">
   <si>
     <t>No</t>
   </si>
@@ -900,6 +900,27 @@
   </si>
   <si>
     <t>Pemberian informasi list konkin yang belum melakukan update pada popup notifikasi</t>
+  </si>
+  <si>
+    <t>Filter transaksi tidak berjalan untuk transaksi SPPD di operator &gt; transaksi belum diajukan</t>
+  </si>
+  <si>
+    <t>Mengubah transaksi SPPD v3 di tabel menjadi SPPD</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>Karena SPPD != SPPD V3</t>
+  </si>
+  <si>
+    <t>Salah login akun</t>
+  </si>
+  <si>
+    <t>Transaksi bisa ditemukan di PPK</t>
+  </si>
+  <si>
+    <t>Transaksi tidak ditemukan progress 4/9</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J99"/>
+  <dimension ref="B2:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C76" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98:I99"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4097,6 +4118,64 @@
       </c>
       <c r="J99" s="10" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>95</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44985.611550810187</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I100" s="3">
+        <v>44985.620917361113</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44985.621243287038</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" s="3">
+        <v>44985.621666550927</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E71C90-E17D-43D2-A72A-45B6ACEAE779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235FE1C-3ABC-4E08-82BE-418CC5C0B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="313">
   <si>
     <t>No</t>
   </si>
@@ -779,9 +779,6 @@
     <t>Penerapan nilai realisasi ketika update renkas revisi</t>
   </si>
   <si>
-    <t>Export Import Renkas Editor</t>
-  </si>
-  <si>
     <t>Penerapan nilai pagu dan validasi total renkas pada renkas editor</t>
   </si>
   <si>
@@ -921,6 +918,69 @@
   </si>
   <si>
     <t>Transaksi tidak ditemukan progress 4/9</t>
+  </si>
+  <si>
+    <t>Update bugfix #95</t>
+  </si>
+  <si>
+    <t>Zoom meeting dengan tim DEIS soal spek api dari SIK</t>
+  </si>
+  <si>
+    <t>Pembuatan api SIK ke DEIS untuk integrasi</t>
+  </si>
+  <si>
+    <t>Testing Modul Renkas</t>
+  </si>
+  <si>
+    <t>Bedtest modul renkas oleh SBP dan PEM</t>
+  </si>
+  <si>
+    <t>Sosialisasi modul renkas ke semua satker</t>
+  </si>
+  <si>
+    <t>Pendampingan implementasi modul renkas</t>
+  </si>
+  <si>
+    <t>Export Import excel Renkas Editor per konkin</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup setiap jam 2 pagi untuk server IKA</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup setiap jam 2 pagi untuk server PEM</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup untuk server PEM</t>
+  </si>
+  <si>
+    <t>Pengamanan</t>
+  </si>
+  <si>
+    <t>Pengamanan data dan aplikasi</t>
+  </si>
+  <si>
+    <t>IKA</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup untuk server IKA</t>
+  </si>
+  <si>
+    <t>Pembuatan mekanisme untuk backup DB harian di server IKA</t>
+  </si>
+  <si>
+    <t>Pembuatan mekanisme untuk backup DB harian di server PEM</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>Update Fitur #100</t>
+  </si>
+  <si>
+    <t>Pengamanan data</t>
+  </si>
+  <si>
+    <t>Pembuatan mekanisme backup db harian (testing)</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J101"/>
+  <dimension ref="B2:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3791,7 +3851,7 @@
         <v>232</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>219</v>
@@ -3820,13 +3880,13 @@
         <v>98</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>61</v>
@@ -3849,13 +3909,13 @@
         <v>98</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>219</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>61</v>
@@ -3864,7 +3924,7 @@
         <v>44984.657196296299</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3878,13 +3938,13 @@
         <v>98</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>61</v>
@@ -3893,7 +3953,7 @@
         <v>44984.65042002315</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
@@ -3907,13 +3967,13 @@
         <v>98</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>61</v>
@@ -3922,7 +3982,7 @@
         <v>44985.243208333333</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
@@ -3936,17 +3996,17 @@
         <v>5</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>224</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" s="7"/>
       <c r="J93" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
@@ -3960,13 +4020,13 @@
         <v>4</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>61</v>
@@ -3986,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>125</v>
@@ -4001,7 +4061,7 @@
         <v>44985.552505902779</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
@@ -4015,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>61</v>
@@ -4030,7 +4090,7 @@
         <v>44985.553685300925</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -4044,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>63</v>
@@ -4059,7 +4119,7 @@
         <v>44985.554113425926</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -4073,13 +4133,13 @@
         <v>98</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>61</v>
@@ -4088,7 +4148,7 @@
         <v>44985.587797569446</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -4102,7 +4162,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>224</v>
@@ -4117,7 +4177,7 @@
         <v>44985.587797569446</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4131,13 +4191,13 @@
         <v>98</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>61</v>
@@ -4146,12 +4206,12 @@
         <v>44985.620917361113</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2">
         <v>44985.621243287038</v>
@@ -4160,13 +4220,13 @@
         <v>98</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>61</v>
@@ -4175,7 +4235,181 @@
         <v>44985.621666550927</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="1">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44986.319992245371</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="3">
+        <v>44986.389830671294</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="1">
+        <v>98</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44986.355745601853</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" s="3">
+        <v>44986.357037268521</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="1">
+        <v>99</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44986.357234143521</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I104" s="3">
+        <v>44986.357782291663</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="1">
+        <v>100</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44986.35795474537</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I105" s="3">
+        <v>44986.386072106485</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" s="1">
+        <v>101</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44986.389079745371</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I106" s="3">
+        <v>44986.389967129631</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="1">
+        <v>102</v>
+      </c>
+      <c r="C107" s="2">
+        <v>44986.40846053241</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I107" s="3">
+        <v>44986.40926458333</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4424,10 +4658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G21"/>
+  <dimension ref="B3:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4674,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -4458,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>149</v>
@@ -4475,10 +4709,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="2">
         <v>44985.554659837966</v>
@@ -4495,10 +4729,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -4515,7 +4749,7 @@
         <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -4532,7 +4766,7 @@
         <v>239</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -4546,10 +4780,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -4563,10 +4797,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -4580,10 +4814,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -4600,7 +4834,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -4617,7 +4851,7 @@
         <v>241</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -4634,7 +4868,7 @@
         <v>242</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -4651,7 +4885,7 @@
         <v>243</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -4668,7 +4902,7 @@
         <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -4679,13 +4913,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G17" s="2">
         <v>44984.657637847224</v>
@@ -4699,13 +4933,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -4719,10 +4953,13 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>269</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44986.386444560187</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -4736,10 +4973,10 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -4753,10 +4990,186 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44986.344380671297</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44987.344380671297</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44988.344380671297</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44989.344380671297</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44990.344380671297</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44991.344380671297</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44986.353972106481</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>269</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44986.354993634261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44986.355116203704</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44986.355471759256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44986.362310185184</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44987.362310127312</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F235FE1C-3ABC-4E08-82BE-418CC5C0B268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99394583-01C6-4E4D-A243-5A9B84B43578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="request" sheetId="3" r:id="rId2"/>
     <sheet name="rules" sheetId="2" r:id="rId3"/>
     <sheet name="rencana" sheetId="4" r:id="rId4"/>
+    <sheet name="report" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="354">
   <si>
     <t>No</t>
   </si>
@@ -944,12 +945,6 @@
     <t>Export Import excel Renkas Editor per konkin</t>
   </si>
   <si>
-    <t>Mengaktifkan server level backup setiap jam 2 pagi untuk server IKA</t>
-  </si>
-  <si>
-    <t>Mengaktifkan server level backup setiap jam 2 pagi untuk server PEM</t>
-  </si>
-  <si>
     <t>Mengaktifkan server level backup untuk server PEM</t>
   </si>
   <si>
@@ -981,6 +976,135 @@
   </si>
   <si>
     <t>Pembuatan mekanisme backup db harian (testing)</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup harian untuk server IKA</t>
+  </si>
+  <si>
+    <t>Mengaktifkan server level backup harian untuk server PEM</t>
+  </si>
+  <si>
+    <t>Pada Plan Support Release, progress todo dan complete tidak muncul</t>
+  </si>
+  <si>
+    <t>Error pada fe code</t>
+  </si>
+  <si>
+    <t>Perbaikan FE state</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>Pembuatan modul export template renkas editor part 1</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>backup level db</t>
+  </si>
+  <si>
+    <t>backup level server</t>
+  </si>
+  <si>
+    <t>1. menambah menu seluruh transaksi terbayar utk data membuat BKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. membuat mekanisme 2 level backup : </t>
+  </si>
+  <si>
+    <t>3. menyimpan backup 2 hari terakhir di cloud</t>
+  </si>
+  <si>
+    <t>4. Membuat renkas editor</t>
+  </si>
+  <si>
+    <t>1 (1-7)</t>
+  </si>
+  <si>
+    <t>2 (8-14)</t>
+  </si>
+  <si>
+    <t>3 (15-21)</t>
+  </si>
+  <si>
+    <t>4 (22-31)</t>
+  </si>
+  <si>
+    <t>5. Melakukan xx Support dan Release</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>4 (22-30)</t>
+  </si>
+  <si>
+    <t>Report Mingguan (Summary and Notable Activities)</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>Pembuatan mekanisme penghapusan file backup db lama pada server PEM (testing)</t>
+  </si>
+  <si>
+    <t>Membuat mekanisme auto delete file backup db lama pada server PEM (&gt;14 hari) (on testing)</t>
+  </si>
+  <si>
+    <t>Membuat mekanisme auto delete file backup db lama pada server IKA (&gt;14 hari) (on testing)</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>Pembuatan UI Renkas Editor part 1</t>
+  </si>
+  <si>
+    <t>Desain struktur data renkas scheduler</t>
+  </si>
+  <si>
+    <t>Diskusi perkembangan SIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebutuhan komunikasi </t>
+  </si>
+  <si>
+    <t>Rapat</t>
+  </si>
+  <si>
+    <t>Rapat pengembangan SIK</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>Pembuatan algoritma max tanggal realisasi mingguan selama setahun</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>Pembuatan modul renkas scheduler editor</t>
+  </si>
+  <si>
+    <t>Pembuatan db renkas_scheduler</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>6. Pembuatan renkas scheduler</t>
+  </si>
+  <si>
+    <t>Desain mekanisme pra proses untuk realisasi di renkas revisi</t>
+  </si>
+  <si>
+    <t>Pembuatan mekanisme pra proses untuk realisasi mingguan di renkas revisi untuk mempercepat akses</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1130,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1015,7 +1146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1023,11 +1154,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1069,6 +1215,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J107"/>
+  <dimension ref="B2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B86" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A96" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4278,13 +4442,13 @@
         <v>4</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>61</v>
@@ -4304,16 +4468,16 @@
         <v>44986.357234143521</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>61</v>
@@ -4351,7 +4515,7 @@
         <v>44986.386072106485</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
@@ -4365,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>125</v>
@@ -4380,7 +4544,7 @@
         <v>44986.389967129631</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
@@ -4394,13 +4558,13 @@
         <v>4</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>61</v>
@@ -4409,7 +4573,326 @@
         <v>44986.40926458333</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B108" s="1">
+        <v>103</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44986.549123842589</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I108" s="3">
+        <v>44986.556490740739</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
+        <v>104</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44986.65340520833</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I109" s="3">
+        <v>44986.654023263887</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
+        <v>105</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44987.371855439815</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I110" s="3">
+        <v>44987.372363773145</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
+        <v>106</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44987.58929398148</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="3">
+        <v>44987.589594907404</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B112" s="1">
+        <v>107</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44987.589780092596</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I112" s="3">
+        <v>44987.590266203704</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B113" s="1">
+        <v>108</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44987.437731481485</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="3">
+        <v>44987.542303240742</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B114" s="1">
+        <v>109</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44988.382372685184</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I114" s="3">
+        <v>44988.426863425928</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B115" s="1">
+        <v>110</v>
+      </c>
+      <c r="C115" s="2">
+        <v>44988.59419398148</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I115" s="3">
+        <v>44988.59462916667</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B116" s="1">
+        <v>111</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44988.594887615742</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I116" s="3">
+        <v>44988.595670486109</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B117" s="1">
+        <v>112</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44988.59585416667</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I117" s="3">
+        <v>44988.596437037035</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B118" s="1">
+        <v>113</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44988.597086226851</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I118" s="3">
+        <v>44988.597641898152</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4658,10 +5141,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G31"/>
+  <dimension ref="B3:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4749,7 +5232,7 @@
         <v>238</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -4834,7 +5317,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5109,7 +5592,7 @@
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>269</v>
@@ -5129,7 +5612,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>269</v>
@@ -5149,7 +5632,7 @@
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>268</v>
@@ -5166,13 +5649,189 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>249</v>
       </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44987.345125231484</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44987.373828240743</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44988.598107523147</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B68D1-1680-4CB8-ABD2-1A68B7B4C287}">
+  <dimension ref="A2:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.21875" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="B2" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99394583-01C6-4E4D-A243-5A9B84B43578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085DAA2-288A-44DD-97B0-4C038803D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="372">
   <si>
     <t>No</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve">Salah versi </t>
   </si>
   <si>
-    <t>Semua</t>
-  </si>
-  <si>
     <t>Fix</t>
   </si>
   <si>
@@ -1105,6 +1102,63 @@
   </si>
   <si>
     <t>Pembuatan mekanisme pra proses untuk realisasi mingguan di renkas revisi untuk mempercepat akses</t>
+  </si>
+  <si>
+    <t>Integrasi fitur-fitur renkas ke dalam 1 menu</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>Zoom meeting terkait laporan pengembangan</t>
+  </si>
+  <si>
+    <t>Tidak bisa membuat transaksi karena melebihi pagu di DL.6345.SCH.301.051.F.524111</t>
+  </si>
+  <si>
+    <t>Validasi pagu</t>
+  </si>
+  <si>
+    <t>Menyesuaikan timezone server dan timezone db ke Asia/Jakarta</t>
+  </si>
+  <si>
+    <t>Menyiapkan cron untuk backup db harian 6 satker di server IKA</t>
+  </si>
+  <si>
+    <t>Menyiapkan mekanisme untuk backup db harian untuk 6 satker di server IKA (testing)</t>
+  </si>
+  <si>
+    <t>Membuat modul laporan realisasi khusus PEM untuk seluruh user</t>
+  </si>
+  <si>
+    <t>Membuat modul input laporan realisasi khusus PEM untuk superadmin</t>
+  </si>
+  <si>
+    <t>Cek transaksi OK</t>
+  </si>
+  <si>
+    <t>Transaksi jika diinput sesuai sisa pagu tidak bisa masuk</t>
+  </si>
+  <si>
+    <t>Error BK melebihi pagu</t>
+  </si>
+  <si>
+    <t>Kesalahan validasi transaksi vs pagu</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>Update Bugfix #120</t>
+  </si>
+  <si>
+    <t>Penerima non pegawai tidak muncul di form honor/sppd</t>
+  </si>
+  <si>
+    <t>Salah dropdown</t>
+  </si>
+  <si>
+    <t>Menginfokan user bahwa penerima non pegawai bisa muncul di dropdown non pegawai</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1187,12 @@
     <font>
       <sz val="15"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1547,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J118"/>
+  <dimension ref="B2:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A104" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,12 +1622,12 @@
     <col min="6" max="6" width="29.77734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="69.21875" style="7" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1590,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1610,10 +1670,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
@@ -1634,19 +1694,19 @@
         <v>44935.386104513891</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3">
         <v>44935.393854166665</v>
@@ -1675,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3">
         <v>44930.393854166665</v>
@@ -1704,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3">
         <v>44934.393854166665</v>
@@ -1721,19 +1781,19 @@
         <v>44934.386104513891</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3">
         <v>44934.393854166665</v>
@@ -1753,16 +1813,16 @@
         <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3">
         <v>44935.393854050926</v>
@@ -1779,19 +1839,19 @@
         <v>44934.386104513891</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3">
         <v>44934.393854166665</v>
@@ -1808,19 +1868,19 @@
         <v>44935.412921064817</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3">
         <v>44935.413824074072</v>
@@ -1843,13 +1903,13 @@
         <v>6</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3">
         <v>44935.413824074072</v>
@@ -1869,16 +1929,16 @@
         <v>4</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3">
         <v>44932.413819444446</v>
@@ -1895,19 +1955,19 @@
         <v>44932.413819444446</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="3">
         <v>44933.413819444446</v>
@@ -1924,19 +1984,19 @@
         <v>44935.428867361108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="3">
         <v>44935.430297916668</v>
@@ -1953,19 +2013,19 @@
         <v>44935.417199074072</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3">
         <v>44935.437206481482</v>
@@ -1982,19 +2042,19 @@
         <v>44935.437608449072</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3">
         <v>44935.437210648146</v>
@@ -2011,19 +2071,19 @@
         <v>44935.438101851854</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="3">
         <v>44935.45577025463</v>
@@ -2040,19 +2100,19 @@
         <v>44935.455950694442</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="3">
         <v>44935.456553009259</v>
@@ -2072,16 +2132,16 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="3">
         <v>44935.613193750003</v>
@@ -2098,19 +2158,19 @@
         <v>44935.613376041663</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3">
         <v>44935.61597835648</v>
@@ -2130,16 +2190,16 @@
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3">
         <v>44936.365005208332</v>
@@ -2156,19 +2216,19 @@
         <v>44936.365637152776</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="3">
         <v>44936.366567592595</v>
@@ -2185,19 +2245,19 @@
         <v>44936.40730324074</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3">
         <v>44936.482673611114</v>
@@ -2214,25 +2274,25 @@
         <v>44936.482421064815</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -2243,25 +2303,25 @@
         <v>44936.579013310184</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" s="3">
         <v>44936.582123958331</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -2272,25 +2332,25 @@
         <v>44936.581720486109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" s="3">
         <v>44937.408474537035</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -2304,22 +2364,22 @@
         <v>4</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" s="3">
         <v>44937.356564699076</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
@@ -2330,25 +2390,25 @@
         <v>44937.428449652776</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="3">
         <v>44937.429155092592</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -2362,22 +2422,22 @@
         <v>12</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="3">
         <v>44939.381312847225</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
@@ -2388,25 +2448,25 @@
         <v>44939.397110763886</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3">
         <v>44939.396919212966</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -2420,22 +2480,22 @@
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" s="3">
         <v>44939.397503587963</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -2446,25 +2506,25 @@
         <v>44939.3977443287</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3">
         <v>44939.398121759259</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
@@ -2475,25 +2535,25 @@
         <v>44939.398294328705</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" s="3">
         <v>44939.408279629628</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -2504,25 +2564,25 @@
         <v>44939.416979166665</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" s="3">
         <v>44939.444058680558</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -2533,25 +2593,25 @@
         <v>44939.464342708336</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3">
         <v>44939.622083333335</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2565,22 +2625,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3">
         <v>44942.546411342591</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
@@ -2591,25 +2651,25 @@
         <v>44942.546568749996</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" s="3">
         <v>44942.546983101849</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -2620,25 +2680,25 @@
         <v>44943.838240740741</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40" s="3">
         <v>44944.338645833333</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -2649,25 +2709,25 @@
         <v>44950.370423263892</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="H41" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" s="3">
         <v>44950.375348032409</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2678,25 +2738,25 @@
         <v>44950.371357407406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3">
         <v>44950.375452777778</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
@@ -2707,25 +2767,25 @@
         <v>44950.391869791667</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" s="3">
         <v>44950.392239120367</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
@@ -2736,25 +2796,25 @@
         <v>44950.411545833333</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" s="3">
         <v>44950.412128587966</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
@@ -2765,25 +2825,25 @@
         <v>44950.610205324076</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="H45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" s="3">
         <v>44951.405338194447</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
@@ -2794,25 +2854,25 @@
         <v>44950.662232523151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I46" s="3">
         <v>44951.405470370373</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
@@ -2826,22 +2886,22 @@
         <v>4</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I47" s="3">
         <v>44950.663526273151</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -2855,22 +2915,22 @@
         <v>4</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="H48" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" s="3">
         <v>44951.624959259258</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2884,22 +2944,22 @@
         <v>12</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" s="3">
         <v>44951.625156134258</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -2913,22 +2973,22 @@
         <v>12</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="3">
         <v>44957.38970925926</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
@@ -2939,25 +2999,25 @@
         <v>44957.389495370371</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I51" s="3">
         <v>44957.389804166669</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2968,25 +3028,25 @@
         <v>44952.451954976852</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I52" s="3">
         <v>44957.390174768516</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3000,22 +3060,22 @@
         <v>4</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I53" s="3">
         <v>44957.390602893516</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3029,22 +3089,22 @@
         <v>12</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="2">
         <v>44952.715902777774</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -3055,25 +3115,25 @@
         <v>44957.391038657406</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="3">
         <v>44957.391587962964</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
@@ -3084,25 +3144,25 @@
         <v>44958.398888888885</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="H56" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I56" s="2">
         <v>44958.482222222221</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3113,25 +3173,25 @@
         <v>44958.398888888885</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57" s="2">
         <v>44958.482222222221</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
@@ -3142,25 +3202,25 @@
         <v>44959.358236689812</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58" s="3">
         <v>44959.363564467596</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
@@ -3171,25 +3231,25 @@
         <v>44959.577650462961</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="H59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59" s="3">
         <v>44959.62334085648</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
@@ -3200,25 +3260,25 @@
         <v>44960.596805555557</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I60" s="2">
         <v>44960.611388888887</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3232,22 +3292,22 @@
         <v>4</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I61" s="3">
         <v>44963.431021643519</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
@@ -3258,25 +3318,25 @@
         <v>44963.431282523146</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62" s="3">
         <v>44963.442947916665</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
@@ -3290,22 +3350,22 @@
         <v>4</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="H63" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63" s="3">
         <v>44964.589384837964</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3319,22 +3379,22 @@
         <v>4</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I64" s="3">
         <v>44970.628190740739</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
@@ -3345,25 +3405,25 @@
         <v>44970.62840671296</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I65" s="3">
         <v>44970.628802777777</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3374,25 +3434,25 @@
         <v>44971.505162037036</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="H66" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I66" s="3">
         <v>44971.668738425928</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
@@ -3406,22 +3466,22 @@
         <v>4</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" s="3">
         <v>44972.338634259257</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
@@ -3435,22 +3495,22 @@
         <v>4</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="H68" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I68" s="2">
         <v>44972.422488425924</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
@@ -3464,22 +3524,22 @@
         <v>12</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="H69" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I69" s="2">
         <v>44972.400960648149</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3493,22 +3553,22 @@
         <v>12</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="H70" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I70" s="2">
         <v>44972.650960648149</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -3519,25 +3579,25 @@
         <v>44972.400960648149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I71" s="2">
         <v>44972.402349537035</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3551,22 +3611,22 @@
         <v>12</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="H72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I72" s="2">
         <v>44973.837731481479</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -3577,25 +3637,25 @@
         <v>44974.427233333336</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="H73" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I73" s="3">
         <v>44974.435685416669</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3609,22 +3669,22 @@
         <v>4</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="H74" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I74" s="3">
         <v>44978.620657175925</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
@@ -3635,25 +3695,25 @@
         <v>44978.620859953706</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I75" s="3">
         <v>44978.621276736114</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -3664,25 +3724,25 @@
         <v>44979.372459837963</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="H76" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I76" s="3">
         <v>44979.458771296297</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -3693,25 +3753,25 @@
         <v>44979.404976851853</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="H77" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I77" s="3">
         <v>44979.461762847219</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
@@ -3722,25 +3782,25 @@
         <v>44979.459144560184</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I78" s="3">
         <v>44979.460765393516</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -3751,25 +3811,25 @@
         <v>44979.475874768519</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="H79" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I79" s="3">
         <v>44979.476466666667</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
@@ -3780,25 +3840,25 @@
         <v>44979.476691435186</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I80" s="3">
         <v>44979.493354745369</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
@@ -3809,25 +3869,25 @@
         <v>44979.490578703706</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I81" s="3">
         <v>44979.566123611112</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
@@ -3838,25 +3898,25 @@
         <v>44981.370520833334</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="G82" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I82" s="2">
         <v>44981.57885416667</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
@@ -3870,22 +3930,22 @@
         <v>5</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I83" s="2">
         <v>44982.413576388892</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
@@ -3896,25 +3956,25 @@
         <v>44981.358483796299</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="F84" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I84" s="3">
         <v>44981.486296296294</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
@@ -3928,22 +3988,22 @@
         <v>5</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="H85" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I85" s="2">
         <v>44982.413576388892</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
@@ -3954,25 +4014,25 @@
         <v>44982.413576388892</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I86" s="2">
         <v>44982.413576388892</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
@@ -3983,25 +4043,25 @@
         <v>44984.36225416667</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I87" s="3">
         <v>44984.363412847226</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
@@ -4012,25 +4072,25 @@
         <v>44984.383611111109</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I88" s="3">
         <v>44984.645254282404</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
@@ -4041,25 +4101,25 @@
         <v>44984.521145833336</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="H89" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I89" s="3">
         <v>44984.646397569442</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
@@ -4070,25 +4130,25 @@
         <v>44984.625324074077</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="H90" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I90" s="3">
         <v>44984.657196296299</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4099,25 +4159,25 @@
         <v>44984.646665509259</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="H91" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I91" s="3">
         <v>44984.65042002315</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
@@ -4128,25 +4188,25 @@
         <v>44984.673055555555</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="H92" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I92" s="3">
         <v>44985.243208333333</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
@@ -4160,17 +4220,17 @@
         <v>5</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H93" s="7"/>
       <c r="J93" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
@@ -4184,16 +4244,16 @@
         <v>4</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="H94" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I94" s="3">
         <v>44985.410190509261</v>
@@ -4207,25 +4267,25 @@
         <v>44985.396645370369</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I95" s="3">
         <v>44985.552505902779</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
@@ -4239,22 +4299,22 @@
         <v>4</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="H96" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I96" s="3">
         <v>44985.553685300925</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -4265,25 +4325,25 @@
         <v>44985.553843402777</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I97" s="3">
         <v>44985.554113425926</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -4294,25 +4354,25 @@
         <v>44985.396645370369</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="H98" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I98" s="3">
         <v>44985.587797569446</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -4326,22 +4386,22 @@
         <v>5</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I99" s="3">
         <v>44985.587797569446</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4352,25 +4412,25 @@
         <v>44985.611550810187</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="H100" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I100" s="3">
         <v>44985.620917361113</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
@@ -4381,25 +4441,25 @@
         <v>44985.621243287038</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="H101" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I101" s="3">
         <v>44985.621666550927</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -4410,25 +4470,25 @@
         <v>44986.319992245371</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I102" s="3">
         <v>44986.389830671294</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
@@ -4442,22 +4502,22 @@
         <v>4</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="H103" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I103" s="3">
         <v>44986.357037268521</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
@@ -4468,25 +4528,25 @@
         <v>44986.357234143521</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="F104" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="H104" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I104" s="3">
         <v>44986.357782291663</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4500,22 +4560,22 @@
         <v>4</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I105" s="3">
         <v>44986.386072106485</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
@@ -4526,25 +4586,25 @@
         <v>44986.389079745371</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I106" s="3">
         <v>44986.389967129631</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
@@ -4558,22 +4618,22 @@
         <v>4</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I107" s="3">
         <v>44986.40926458333</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
@@ -4587,22 +4647,22 @@
         <v>4</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="H108" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I108" s="3">
         <v>44986.556490740739</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
@@ -4613,25 +4673,25 @@
         <v>44986.65340520833</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I109" s="3">
         <v>44986.654023263887</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4645,22 +4705,22 @@
         <v>4</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I110" s="3">
         <v>44987.372363773145</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
@@ -4671,25 +4731,25 @@
         <v>44987.58929398148</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I111" s="3">
         <v>44987.589594907404</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
@@ -4700,25 +4760,25 @@
         <v>44987.589780092596</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I112" s="3">
         <v>44987.590266203704</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
@@ -4732,22 +4792,22 @@
         <v>4</v>
       </c>
       <c r="E113" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="H113" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I113" s="3">
         <v>44987.542303240742</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
@@ -4761,22 +4821,22 @@
         <v>4</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I114" s="3">
         <v>44988.426863425928</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
@@ -4787,25 +4847,25 @@
         <v>44988.59419398148</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I115" s="3">
         <v>44988.59462916667</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
@@ -4816,25 +4876,25 @@
         <v>44988.594887615742</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I116" s="3">
         <v>44988.595670486109</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
@@ -4845,25 +4905,25 @@
         <v>44988.59585416667</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I117" s="3">
         <v>44988.596437037035</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
@@ -4874,29 +4934,291 @@
         <v>44988.597086226851</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I118" s="3">
         <v>44988.597641898152</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B119" s="1">
+        <v>114</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44988.653678587965</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I119" s="3">
+        <v>44988.65401435185</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B120" s="1">
+        <v>115</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44988.593807870369</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" s="3">
+        <v>44988.666585300925</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <v>116</v>
+      </c>
+      <c r="C121" s="2">
+        <v>44991.353552430555</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I121" s="3">
+        <v>44991.586659490742</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" s="1">
+        <v>117</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44991.429526736109</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I122" s="3">
+        <v>44991.430120254627</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="1">
+        <v>118</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44991.430221759256</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I123" s="3">
+        <v>44991.430718402778</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>119</v>
+      </c>
+      <c r="C124" s="2">
+        <v>44991.431178125</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I124" s="3">
+        <v>44991.557791087966</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>120</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44991.586785300926</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I125" s="3">
+        <v>44991.59192673611</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>121</v>
+      </c>
+      <c r="C126" s="2">
+        <v>44991.592311921297</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I126" s="3">
+        <v>44991.592623842589</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>122</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44991.622073842591</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I127" s="3">
+        <v>44991.622705555557</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
@@ -4922,7 +5244,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -4930,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -4939,10 +5261,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -4956,10 +5278,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3">
         <v>44932.413819444446</v>
@@ -4973,10 +5295,10 @@
         <v>44981.408356481479</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -4991,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -5006,7 +5328,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -5021,7 +5343,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -5036,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -5061,7 +5383,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -5071,66 +5393,66 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5141,10 +5463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G35"/>
+  <dimension ref="B3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5157,7 +5479,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -5166,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -5175,10 +5497,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -5189,13 +5511,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G5" s="2">
         <v>44985.554659837966</v>
@@ -5209,13 +5531,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5226,13 +5548,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5243,13 +5565,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -5260,13 +5582,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5277,13 +5599,13 @@
         <v>44984.456495949074</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -5294,13 +5616,13 @@
         <v>44984.517227546297</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5311,13 +5633,13 @@
         <v>44984.518630787039</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5328,13 +5650,13 @@
         <v>44984.518630787039</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -5345,13 +5667,13 @@
         <v>44984.518630787039</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -5362,13 +5684,13 @@
         <v>44984.518630787039</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -5379,13 +5701,13 @@
         <v>44984.518630787039</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -5396,13 +5718,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G17" s="2">
         <v>44984.657637847224</v>
@@ -5416,13 +5738,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -5436,10 +5758,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G19" s="2">
         <v>44986.386444560187</v>
@@ -5453,13 +5775,13 @@
         <v>44985.557593865742</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -5470,13 +5792,13 @@
         <v>44985.558699768517</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -5487,13 +5809,13 @@
         <v>44986.344380671297</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -5504,13 +5826,13 @@
         <v>44987.344380671297</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -5521,13 +5843,13 @@
         <v>44988.344380671297</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -5538,13 +5860,13 @@
         <v>44989.344380671297</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -5555,13 +5877,13 @@
         <v>44990.344380671297</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -5572,13 +5894,13 @@
         <v>44991.344380671297</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -5589,13 +5911,13 @@
         <v>44986.353972106481</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G28" s="2">
         <v>44986.354993634261</v>
@@ -5612,10 +5934,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G29" s="2">
         <v>44986.355471759256</v>
@@ -5629,13 +5951,13 @@
         <v>44986.362310185184</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -5649,10 +5971,10 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
@@ -5666,10 +5988,10 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
@@ -5680,13 +6002,13 @@
         <v>44987.373828240743</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -5697,17 +6019,48 @@
         <v>44988.598107523147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44991.561652893521</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>362</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44991.562117592592</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>361</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5737,7 +6090,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5745,13 +6098,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -5760,70 +6113,70 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="F5" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>328</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D085DAA2-288A-44DD-97B0-4C038803D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BB352-6F86-40AC-A6D7-2974694B937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="405">
   <si>
     <t>No</t>
   </si>
@@ -1159,6 +1159,105 @@
   </si>
   <si>
     <t>Menginfokan user bahwa penerima non pegawai bisa muncul di dropdown non pegawai</t>
+  </si>
+  <si>
+    <t>Perbaikan modul realisasi mauren</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>Proteksi di renkas editor agar hanya bisa satu konkin per akun MAK</t>
+  </si>
+  <si>
+    <t>Pagination renkas editor belum dinamis</t>
+  </si>
+  <si>
+    <t>Memperbaiki pagination agar dinamis sesuai page-nya</t>
+  </si>
+  <si>
+    <t>Filter renkas editor masih belum bekerja dengan baik</t>
+  </si>
+  <si>
+    <t>Perbaikan filter keyword di renkas editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perubahan tipe input renkas scheduler : semula dan revisi </t>
+  </si>
+  <si>
+    <t>Penambahan alogoritma minggu ke 5 di bulan februari saat kabisat</t>
+  </si>
+  <si>
+    <t>Angka realisasi SP2D dan SPM tidak sama dengan SPAN dan SAKTI</t>
+  </si>
+  <si>
+    <t>Bug di query builder</t>
+  </si>
+  <si>
+    <t>Perbaikan di query builder</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>Update bugfix #129</t>
+  </si>
+  <si>
+    <t>Update bugfix</t>
+  </si>
+  <si>
+    <t>Membuat preview cetak untuk laporan realisasi SP2D</t>
+  </si>
+  <si>
+    <t>Pembuatan fitur laporan cetak realisasi multi versi (User s.d SP2D)</t>
+  </si>
+  <si>
+    <t>Pengaturan ulang urutan kolom laporan realisasi</t>
+  </si>
+  <si>
+    <t>1. Melanjutkan renkas editor</t>
+  </si>
+  <si>
+    <t>2. Melanjutkan renkas scheduler</t>
+  </si>
+  <si>
+    <t>3. Membuat fitur cetak laporan realisasi semua versi</t>
+  </si>
+  <si>
+    <t>Backup db untuk pep, kebtke dan sbp tidak berjalan tgl 8 Maret jam 1</t>
+  </si>
+  <si>
+    <t>Crontab menggunakan UTC</t>
+  </si>
+  <si>
+    <t>Menyesuaikan waktu running cron untuk backup db</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>4. Perbaikan view laporan semua versi</t>
+  </si>
+  <si>
+    <t>Membuat export laporan realisasi agar akun bisa per kolom dan sesuai dengan preview cetak yang baru</t>
+  </si>
+  <si>
+    <t>Pembuatan ulang export excel agar MAK bisa per kolom dan sesuai dengan view report</t>
+  </si>
+  <si>
+    <t>Update Fitur #128 dan #129 ke seluruh satker di IKA</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>Update SC versi 2.55</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J127"/>
+  <dimension ref="B2:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5216,6 +5315,267 @@
         <v>367</v>
       </c>
     </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>123</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44992.354739120368</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I128" s="3">
+        <v>44992.355056712964</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>124</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44992.562842245374</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I129" s="3">
+        <v>44992.573379629626</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>125</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44992.574251736114</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I130" s="3">
+        <v>44992.574553009261</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>126</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44993.353979976855</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I131" s="3">
+        <v>44993.401742592592</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>127</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44993.344199537038</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" s="3">
+        <v>44993.43165486111</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>128</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44993.346949652776</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I133" s="3">
+        <v>44993.431593634261</v>
+      </c>
+      <c r="J133" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B134" s="1">
+        <v>129</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44993.431855787036</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I134" s="3">
+        <v>44993.545805324073</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" s="1">
+        <v>130</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44993.546408333335</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I135" s="3">
+        <v>44993.546514814814</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" s="1">
+        <v>131</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44993.546609837962</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I136" s="3">
+        <v>44993.568745254626</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5226,10 +5586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A3" zoomScale="49" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,14 +5600,18 @@
     <col min="5" max="5" width="69.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.33203125" customWidth="1"/>
+    <col min="16" max="16" width="72.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -5267,7 +5631,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -5287,7 +5651,7 @@
         <v>44932.413819444446</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -5302,7 +5666,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -5317,7 +5681,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -5332,7 +5696,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -5347,7 +5711,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -5361,6 +5725,121 @@
         <v>229</v>
       </c>
       <c r="G10" s="3"/>
+    </row>
+    <row r="15" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K15" s="1">
+        <v>126</v>
+      </c>
+      <c r="L15" s="2">
+        <v>44992.453535879627</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K16" s="1">
+        <v>127</v>
+      </c>
+      <c r="L16" s="2">
+        <v>44992.466990162036</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K17" s="1">
+        <v>128</v>
+      </c>
+      <c r="L17" s="2">
+        <v>44992.468194560184</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K18" s="1">
+        <v>129</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44992.469219328705</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K19" s="1">
+        <v>130</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44992.562737962966</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>385</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5463,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5994,7 +6473,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -6011,7 +6490,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -6028,7 +6507,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -6045,7 +6524,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -6060,6 +6539,43 @@
       </c>
       <c r="F36" s="1" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44993.341156249997</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>388</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44993.448870370368</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44993.448177893515</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6071,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B68D1-1680-4CB8-ABD2-1A68B7B4C287}">
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6141,21 +6657,33 @@
       <c r="B6" t="s">
         <v>321</v>
       </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>322</v>
       </c>
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>320</v>
       </c>
+      <c r="C8" t="s">
+        <v>393</v>
+      </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
       </c>
       <c r="F9" s="17"/>
     </row>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7BB352-6F86-40AC-A6D7-2974694B937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9F4D9-9301-4774-9FA4-882E9FDA2B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -1203,9 +1203,6 @@
     <t>tidak</t>
   </si>
   <si>
-    <t>Update bugfix #129</t>
-  </si>
-  <si>
     <t>Update bugfix</t>
   </si>
   <si>
@@ -1258,6 +1255,9 @@
   </si>
   <si>
     <t>Update SC versi 2.55</t>
+  </si>
+  <si>
+    <t>Update bugfix #124</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
   <dimension ref="B2:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5384,10 +5384,10 @@
         <v>302</v>
       </c>
       <c r="E130" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>46</v>
@@ -5413,13 +5413,13 @@
         <v>302</v>
       </c>
       <c r="E131" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="G131" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>60</v>
@@ -5442,7 +5442,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>218</v>
@@ -5457,7 +5457,7 @@
         <v>44993.43165486111</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -5471,7 +5471,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>218</v>
@@ -5486,7 +5486,7 @@
         <v>44993.431593634261</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5500,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>218</v>
@@ -5515,7 +5515,7 @@
         <v>44993.545805324073</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
@@ -5529,7 +5529,7 @@
         <v>302</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>124</v>
@@ -5544,7 +5544,7 @@
         <v>44993.546514814814</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -5558,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>223</v>
@@ -5573,7 +5573,7 @@
         <v>44993.568745254626</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6552,7 +6552,7 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>268</v>
@@ -6572,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>267</v>
@@ -6658,7 +6658,7 @@
         <v>321</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -6666,7 +6666,7 @@
         <v>322</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6674,7 +6674,7 @@
         <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" s="17"/>
     </row>
@@ -6683,7 +6683,7 @@
         <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" s="17"/>
     </row>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9F4D9-9301-4774-9FA4-882E9FDA2B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679E30F-B556-4E74-AF5B-939429EB793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="465">
   <si>
     <t>No</t>
   </si>
@@ -1167,27 +1167,6 @@
     <t>2.51</t>
   </si>
   <si>
-    <t>Proteksi di renkas editor agar hanya bisa satu konkin per akun MAK</t>
-  </si>
-  <si>
-    <t>Pagination renkas editor belum dinamis</t>
-  </si>
-  <si>
-    <t>Memperbaiki pagination agar dinamis sesuai page-nya</t>
-  </si>
-  <si>
-    <t>Filter renkas editor masih belum bekerja dengan baik</t>
-  </si>
-  <si>
-    <t>Perbaikan filter keyword di renkas editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perubahan tipe input renkas scheduler : semula dan revisi </t>
-  </si>
-  <si>
-    <t>Penambahan alogoritma minggu ke 5 di bulan februari saat kabisat</t>
-  </si>
-  <si>
     <t>Angka realisasi SP2D dan SPM tidak sama dengan SPAN dan SAKTI</t>
   </si>
   <si>
@@ -1258,6 +1237,207 @@
   </si>
   <si>
     <t>Update bugfix #124</t>
+  </si>
+  <si>
+    <t>Memperbaiki sistem pagination untuk renkas editor</t>
+  </si>
+  <si>
+    <t>Memperbaiki bug di query builder</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>Update bugfix #133</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>5. Pembuatan ulang format export laporan realisasi</t>
+  </si>
+  <si>
+    <t>Memperbaiki sistem pagination untuk renkas editor 2</t>
+  </si>
+  <si>
+    <t>Rapat pengembangan SIK dengan Ses BPSDM</t>
+  </si>
+  <si>
+    <t>Membuat tabel renkas bulanan dan renkas mingguan</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>Membuat editor renkas bulanan dan mingguan</t>
+  </si>
+  <si>
+    <t>Update form renkas scheduler sesuai tipe</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>Penambahan fitur flagging renkas selesai di keuangan sebagai penanda untuk DEIS</t>
+  </si>
+  <si>
+    <t>Nilai realisasi semua versi nilainya sama dengan realisasi SP2D</t>
+  </si>
+  <si>
+    <t>Penambahan alogoritma minggu ke 5 di bulan februari saat kabisat untuk renkas mingguan</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>Mengerjakan renkas editor mingguan</t>
+  </si>
+  <si>
+    <t>Membuat fitur lock renkas di renkas scheduler</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>Membuat save renkas mingguan</t>
+  </si>
+  <si>
+    <t>Membuat export import renkas bulanan</t>
+  </si>
+  <si>
+    <t>Membuat save renkas bulanan</t>
+  </si>
+  <si>
+    <t>Membuat renkas editor untuk user konkin</t>
+  </si>
+  <si>
+    <t>Membuat lock renkas hanya hidup di user. Keuangan bisa aktif meski lock hidup</t>
+  </si>
+  <si>
+    <t>Memberi tanda untuk row tidak valid di excel export</t>
+  </si>
+  <si>
+    <t>Membuat popup notifikasi di dashboard ketika ada schedule renkas yang unlock dan jadwalnya masuk</t>
+  </si>
+  <si>
+    <t>Membuat mekanisme penyimpanan data untuk renkas mingguan</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>Menyesuaikan tanggal pembuatan BK untuk transaksi dengan SPM &lt; 01/02/2023</t>
+  </si>
+  <si>
+    <t>Update tabel realisasi di dashboard menghilangkan data bulan yang belum terjadi</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>Update grafik realisasi di dashboard agar berhenti di bulan sekarang</t>
+  </si>
+  <si>
+    <t>Update fitur #144 dan #145 ke satker di IKA</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>Jumlah total renkas di dashboard tidak benar</t>
+  </si>
+  <si>
+    <t>Salah penjumlahan</t>
+  </si>
+  <si>
+    <t>Memperbaiki rumus penjumlahan renkas total</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>Update bugfix #147</t>
+  </si>
+  <si>
+    <t>Update grafik realisasi agar realisasi user secara default hidup</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>Update fitur #149</t>
+  </si>
+  <si>
+    <t>Renkas scheduler konfirmasi delete. Tombol tutup tidak berfungsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menambahkan di notifikasi button redirect ke renkas editor </t>
+  </si>
+  <si>
+    <t>Menambahkan di notifikasi list konkin yang belum selesai update renkas diurutkan berdasarkan jumlah akun</t>
+  </si>
+  <si>
+    <t>Urutan aksi di renkas scheduler diubah : lock, selesai, edit, delete</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>Membuat fitur import excel untuk renkas editor</t>
+  </si>
+  <si>
+    <t>Membuat renkas editor bulanan</t>
+  </si>
+  <si>
+    <t>Membuat mekanisme sync data untuk renkas bulanan</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>Membuat validasi input nilai cell tidak boleh kurang dari 1 di renkas editor mingguan dan bulanan</t>
+  </si>
+  <si>
+    <t>Update SC ke 2.68</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>Membuat menu renkas editor per konkin</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>Memberi kolom tanda untuk row tidak valid di excel export untuk memudahkan edit di excel</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>Urutan aksi di renkas scheduler diubah menjadi : lock, selesai, edit, delete</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>Bugfix untuk popup konfirmasi hapus schedule renkas</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>Pembuatan fitur kunci renkas untuk user konkin di renkas scheduler</t>
+  </si>
+  <si>
+    <t>2.76</t>
   </si>
 </sst>
 </file>
@@ -1706,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J136"/>
+  <dimension ref="B2:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5355,13 +5535,13 @@
         <v>4</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>60</v>
@@ -5370,7 +5550,7 @@
         <v>44992.573379629626</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
@@ -5384,10 +5564,10 @@
         <v>302</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>46</v>
@@ -5399,7 +5579,7 @@
         <v>44992.574553009261</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -5413,13 +5593,13 @@
         <v>302</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>60</v>
@@ -5428,7 +5608,7 @@
         <v>44993.401742592592</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
@@ -5442,7 +5622,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>218</v>
@@ -5457,7 +5637,7 @@
         <v>44993.43165486111</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -5471,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>218</v>
@@ -5486,7 +5666,7 @@
         <v>44993.431593634261</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5500,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>218</v>
@@ -5515,7 +5695,7 @@
         <v>44993.545805324073</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
@@ -5529,7 +5709,7 @@
         <v>302</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>124</v>
@@ -5544,7 +5724,7 @@
         <v>44993.546514814814</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -5558,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>223</v>
@@ -5573,7 +5753,848 @@
         <v>44993.568745254626</v>
       </c>
       <c r="J136" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>132</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44993.620215277777</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I137" s="3">
+        <v>44994.339222569448</v>
+      </c>
+      <c r="J137" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44994.271435185183</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I138" s="3">
+        <v>44994.338704861111</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44994.345809375001</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I139" s="3">
+        <v>44994.346157638887</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" s="1">
+        <v>135</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44994.416718981483</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I140" s="3">
+        <v>44994.417079398147</v>
+      </c>
+      <c r="J140" s="10" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" s="1">
+        <v>136</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44994.642601851854</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I141" s="3">
+        <v>44994.642944675928</v>
+      </c>
+      <c r="J141" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="1">
+        <v>137</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44994.643213888892</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I142" s="3">
+        <v>44994.643655092594</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" s="1">
+        <v>138</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44994.643799421297</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I143" s="3">
+        <v>44994.644074421296</v>
+      </c>
+      <c r="J143" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" s="1">
+        <v>139</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44994.645569791668</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="3">
+        <v>44994.645851967594</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="1">
+        <v>140</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44994.342048611114</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I145" s="3">
+        <v>44995.343966087959</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" s="1">
+        <v>141</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44995.344290972222</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I146" s="3">
+        <v>44995.349322685186</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" s="1">
+        <v>142</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44995.349469444445</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I147" s="3">
+        <v>44995.527346296294</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B148" s="1">
+        <v>143</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44995.527538541668</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I148" s="3">
+        <v>44995.528087847226</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>144</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44995.543643518518</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I149" s="3">
+        <v>44995.556426157411</v>
+      </c>
+      <c r="J149" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" s="1">
+        <v>145</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44995.556617245369</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I150" s="3">
+        <v>44995.560042129633</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" s="1">
+        <v>146</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44995.557433217589</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I151" s="3">
+        <v>44995.564123958335</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" s="1">
+        <v>147</v>
+      </c>
+      <c r="C152" s="2">
+        <v>44995.564251620373</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I152" s="3">
+        <v>44995.564843749999</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" s="1">
+        <v>148</v>
+      </c>
+      <c r="C153" s="2">
+        <v>44995.565011921295</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I153" s="3">
+        <v>44995.565349305558</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154" s="1">
+        <v>149</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44995.569059490743</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I154" s="3">
+        <v>44995.56969236111</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B155" s="1">
+        <v>150</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44995.569892129628</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I155" s="3">
+        <v>44995.57023553241</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B156" s="1">
+        <v>151</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44995.590785879627</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I156" s="3">
+        <v>44998.437474768521</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157" s="1">
+        <v>152</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44998.436660416664</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I157" s="3">
+        <v>44998.436926851849</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>153</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44998.536557523148</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I158" s="3">
+        <v>44998.537019328702</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>154</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44998.537183101849</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I159" s="3">
+        <v>44998.580438310186</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" s="1">
+        <v>155</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44998.53829016204</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I160" s="3">
+        <v>44998.580550694445</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" s="1">
+        <v>156</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44998.580667361108</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I161" s="3">
+        <v>44998.580942361114</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B162" s="1">
+        <v>157</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44998.58140023148</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I162" s="3">
+        <v>44998.581869212961</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="1">
+        <v>158</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44998.583109837964</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I163" s="3">
+        <v>44998.583475347223</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B164" s="1">
+        <v>159</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44998.58363645833</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I164" s="3">
+        <v>44998.584973726851</v>
+      </c>
+      <c r="J164" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B165" s="1">
+        <v>160</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44998.586962384259</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I165" s="3">
+        <v>44998.587317592595</v>
+      </c>
+      <c r="J165" s="10" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5588,8 +6609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
   <dimension ref="B3:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="49" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5600,10 +6621,11 @@
     <col min="5" max="5" width="69.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.33203125" customWidth="1"/>
-    <col min="16" max="16" width="72.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -5630,6 +6652,12 @@
       <c r="G4" s="13" t="s">
         <v>148</v>
       </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -5650,6 +6678,12 @@
       <c r="G5" s="3">
         <v>44932.413819444446</v>
       </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -5665,6 +6699,12 @@
         <v>225</v>
       </c>
       <c r="G6" s="3"/>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -5680,6 +6720,12 @@
         <v>226</v>
       </c>
       <c r="G7" s="3"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -5695,6 +6741,12 @@
         <v>227</v>
       </c>
       <c r="G8" s="3"/>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -5710,6 +6762,12 @@
         <v>228</v>
       </c>
       <c r="G9" s="3"/>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -5725,121 +6783,84 @@
         <v>229</v>
       </c>
       <c r="G10" s="3"/>
-    </row>
-    <row r="15" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K15" s="1">
-        <v>126</v>
-      </c>
-      <c r="L15" s="2">
-        <v>44992.453535879627</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K16" s="1">
-        <v>127</v>
-      </c>
-      <c r="L16" s="2">
-        <v>44992.466990162036</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K17" s="1">
-        <v>128</v>
-      </c>
-      <c r="L17" s="2">
-        <v>44992.468194560184</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K18" s="1">
-        <v>129</v>
-      </c>
-      <c r="L18" s="2">
-        <v>44992.469219328705</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="11:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K19" s="1">
-        <v>130</v>
-      </c>
-      <c r="L19" s="2">
-        <v>44992.562737962966</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>385</v>
-      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,7 +6873,7 @@
   <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5942,10 +6963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G38"/>
+  <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6436,7 +7457,10 @@
         <v>304</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44993.581367013889</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -6453,7 +7477,7 @@
         <v>305</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
@@ -6521,7 +7545,10 @@
         <v>362</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44993.580922685185</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -6538,7 +7565,10 @@
         <v>361</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>248</v>
+        <v>268</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44993.581042708334</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -6552,7 +7582,7 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>268</v>
@@ -6572,9 +7602,46 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44993.580724189815</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44994.644389120367</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>409</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44994.654109143521</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>412</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6588,7 +7655,7 @@
   <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6658,7 +7725,7 @@
         <v>321</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -6666,7 +7733,7 @@
         <v>322</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6674,7 +7741,7 @@
         <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F8" s="17"/>
     </row>
@@ -6683,13 +7750,16 @@
         <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3679E30F-B556-4E74-AF5B-939429EB793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83221ACF-A4FF-46CD-AF7E-5A6D696E251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
-    <sheet name="request" sheetId="3" r:id="rId2"/>
-    <sheet name="rules" sheetId="2" r:id="rId3"/>
-    <sheet name="rencana" sheetId="4" r:id="rId4"/>
-    <sheet name="report" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="request" sheetId="3" r:id="rId3"/>
+    <sheet name="rules" sheetId="2" r:id="rId4"/>
+    <sheet name="rencana" sheetId="4" r:id="rId5"/>
+    <sheet name="report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">logs!$B$4:$J$24</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="538">
   <si>
     <t>No</t>
   </si>
@@ -1438,6 +1439,225 @@
   </si>
   <si>
     <t>2.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permintaan checking waktu transaksi SBPKP </t>
+  </si>
+  <si>
+    <t>Check Data</t>
+  </si>
+  <si>
+    <t>Data sudah dicek dan waktu transaksi aman</t>
+  </si>
+  <si>
+    <t>Bug di tanggal tutup target realisasi laporan khusus mauren</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>Bugfix renkas editor terhadap lock schedule</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Memperbaiki renkas scheduler entri bulanan dilimit 1 order by id desc</t>
+  </si>
+  <si>
+    <t>Entri jadwal renkas yang sudah dibuat selesai tidak bisa dikembalikan</t>
+  </si>
+  <si>
+    <t>Penambahan datetime_selesai di tabel renkas scheduler</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>Ketika klik selesai, update lock menjadi TRUE, button edit dan button lock hilang</t>
+  </si>
+  <si>
+    <t>Tidak bisa login</t>
+  </si>
+  <si>
+    <t>Space habis</t>
+  </si>
+  <si>
+    <t>Mempersiapkan upgrade server</t>
+  </si>
+  <si>
+    <t>Upgrade server IKA ke spek lebih tinggi</t>
+  </si>
+  <si>
+    <t>Upgrade Server</t>
+  </si>
+  <si>
+    <t>Renkas Mingguan</t>
+  </si>
+  <si>
+    <t>Harap agar seluruh user konkin agar mengisi renkas mingguan</t>
+  </si>
+  <si>
+    <t>Waktu : xx/xx/xxxx s.d xx/xx/xxxx</t>
+  </si>
+  <si>
+    <t>Konkin Belum Selesai</t>
+  </si>
+  <si>
+    <t>Renkas Bulanan (Revisi POK)</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>Update fitur semua transaksi terbayar</t>
+  </si>
+  <si>
+    <t>Ketika BK dikembalikan dari status SPM/SP2D, transaksi menghilang di kasir belum terbayar (8/9)</t>
+  </si>
+  <si>
+    <t>Beberapa kolom belum direset ketika dikembalikan</t>
+  </si>
+  <si>
+    <t>Memperbaiki reset beberap kolom ketika melakukan pengembalian status SPM dan SP2D</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>Update Bugfix #180</t>
+  </si>
+  <si>
+    <t>Membuat renkas editor dengan tipe revisi (dengan realisasi)</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>Membuat fitur export untuk renkas editor tipe revisi</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>Membuat fitur import untuk renkas editor tipe revisi (exclude realisasi)</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>Bypass validasi cell kosong pada kolom bulan realisasi di renkas editor</t>
+  </si>
+  <si>
+    <t>Mengubah tipe renkas editor menjadi 2 : mingguan dan bulanan</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Membuat tabel renkas mingguan semula untuk menyimpan renkas semula</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menghapus validasi total renkas = total pagu di renkas mingguan </t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>Menyimpan renkas mingguan semula ketika renkas mingguan dinyatakan selesai dan renkas mingguan semula kosong</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>Menyatukan jadwal editor bulanan dan mingguan menjadi bulanan saja. Jika bulanan open, mingguan open juga</t>
+  </si>
+  <si>
+    <t>Membuat flowchart alur proses input renkas di SIK</t>
+  </si>
+  <si>
+    <t>Rapat dengan SBP membahas pengembangan SIK modul Renkas</t>
+  </si>
+  <si>
+    <t>Pembuatan ulang konsep pengembangan renkas sesuai hasil rapat</t>
+  </si>
+  <si>
+    <t>Membuat laporan Rencana Kas : Mingguan Semula, Mingguan Revisi, Bulanan Semula, Bulanan Revisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membuat export excel di ke-4 laporan Rencana Kas </t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>Merevisi flowchart proses renkas agar sesuai dengan perubahan terakhir</t>
+  </si>
+  <si>
+    <t>Membuat filter konkin kosong pada renkas editor mingguan dan bulanan</t>
+  </si>
+  <si>
+    <t>Penambahan validasi konkin kosong pada FE renkas editor mingguan dan bulanan</t>
+  </si>
+  <si>
+    <t>Membuat tombol untuk reset renkas mingguan semula di renkas scheduler</t>
+  </si>
+  <si>
+    <t>Menambahkan status selesai mingguan (jadi ada 2) di row renkas scheduler</t>
+  </si>
+  <si>
+    <t>Ketika klik selesai di bulanan, syarat harus klik selesai mingguan dulu (Silahkan Klik Selesai Renkas Mingguan)</t>
+  </si>
+  <si>
+    <t>Membuat validasi konkin kosong di renkas</t>
+  </si>
+  <si>
+    <t>Ketika masih ada jadwal yg belum selesai, tidak bisa membuat jadwal baru</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>2.100</t>
+  </si>
+  <si>
+    <t>2.101</t>
+  </si>
+  <si>
+    <t>2.102</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1568,6 +1788,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1886,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J165"/>
+  <dimension ref="B2:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="F185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6597,6 +6820,1001 @@
         <v>464</v>
       </c>
     </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B166" s="1">
+        <v>161</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44999.347407407404</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I166" s="3">
+        <v>45000.351534953705</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167" s="1">
+        <v>162</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45000.351736921293</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I167" s="3">
+        <v>45000.352948148146</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B168" s="1">
+        <v>163</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45001.342563888888</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I168" s="3">
+        <v>45001.349482523146</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>164</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45001.349690740739</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I169" s="3">
+        <v>45001.359586805556</v>
+      </c>
+      <c r="J169" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170" s="1">
+        <v>165</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45001.354345486114</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I170" s="3">
+        <v>45001.367732523147</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171" s="1">
+        <v>166</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45001.359207754627</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I171" s="3">
+        <v>45001.367795370374</v>
+      </c>
+      <c r="J171" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B172" s="1">
+        <v>167</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45001.367550578703</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I172" s="3">
+        <v>45002.338765046297</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B173" s="1">
+        <v>168</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45001.385729050926</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I173" s="3">
+        <v>45001.38619016204</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B174" s="1">
+        <v>169</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45001.386370486114</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I174" s="3">
+        <v>45002.338869097221</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B175" s="1">
+        <v>170</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45002.338003819445</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I175" s="3">
+        <v>45002.346978240741</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="1">
+        <v>180</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45002.339425115744</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I176" s="3">
+        <v>45002.37260347222</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>181</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45002.369234837963</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I177" s="3">
+        <v>45002.377703935184</v>
+      </c>
+      <c r="J177" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B178" s="1">
+        <v>182</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45002.555124189814</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I178" s="3">
+        <v>45002.555561342589</v>
+      </c>
+      <c r="J178" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B179" s="1">
+        <v>183</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45002.555717824071</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I179" s="3">
+        <v>45002.556055324072</v>
+      </c>
+      <c r="J179" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B180" s="1">
+        <v>184</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45002.556209953706</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I180" s="3">
+        <v>45002.556763194443</v>
+      </c>
+      <c r="J180" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B181" s="1">
+        <v>185</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45002.557704976854</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I181" s="3">
+        <v>45005.591960069447</v>
+      </c>
+      <c r="J181" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>186</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45005.591543055554</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I182" s="3">
+        <v>45005.591891203701</v>
+      </c>
+      <c r="J182" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B183" s="1">
+        <v>187</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45005.592170254633</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I183" s="3">
+        <v>45005.59266736111</v>
+      </c>
+      <c r="J183" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>188</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45005.592830208334</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I184" s="3">
+        <v>45005.593600694447</v>
+      </c>
+      <c r="J184" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B185" s="1">
+        <v>189</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45005.593737615738</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I185" s="3">
+        <v>45005.594569791669</v>
+      </c>
+      <c r="J185" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>191</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45005.656269097221</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I186" s="3">
+        <v>45005.656632754632</v>
+      </c>
+      <c r="J186" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B187" s="1">
+        <v>192</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45005.605889583334</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I187" s="3">
+        <v>45005.60603657407</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B188" s="1">
+        <v>193</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45005.472812499997</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I188" s="2">
+        <v>45005.489479166667</v>
+      </c>
+      <c r="J188" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B189" s="1">
+        <v>194</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45007.587312268515</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I189" s="3">
+        <v>45007.646424999999</v>
+      </c>
+      <c r="J189" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>195</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45007.587400231481</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I190" s="3">
+        <v>45007.643646412034</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B191" s="1">
+        <v>196</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45009.575677777779</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" ref="H191:H199" si="0">$H$190</f>
+        <v>ya</v>
+      </c>
+      <c r="I191" s="3">
+        <v>45009.576626620372</v>
+      </c>
+      <c r="J191" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B192" s="1">
+        <v>197</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45009.575708564815</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I192" s="3">
+        <v>45009.57672488426</v>
+      </c>
+      <c r="J192" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B193" s="1">
+        <v>198</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45009.575819675927</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I193" s="3">
+        <v>45009.57679259259</v>
+      </c>
+      <c r="J193" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>199</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45009.575893055553</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F194" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I194" s="3">
+        <v>45009.576862847221</v>
+      </c>
+      <c r="J194" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>200</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45009.575961342591</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H195" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I195" s="3">
+        <v>45009.576930902775</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
+        <v>201</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45009.576030902776</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I196" s="3">
+        <v>45009.576987152781</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
+        <v>202</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45009.576110648151</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I197" s="3">
+        <v>45009.577043055557</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
+        <v>203</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45009.576194675923</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I198" s="3">
+        <v>45009.577097569447</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B199" s="1">
+        <v>204</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45009.576339236111</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="0"/>
+        <v>ya</v>
+      </c>
+      <c r="I199" s="3">
+        <v>45009.577158333334</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6606,6 +7824,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B0E20-65D0-4989-995D-D98A903753DA}">
+  <dimension ref="C9:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
   <dimension ref="B3:Q19"/>
   <sheetViews>
@@ -6868,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
   <dimension ref="B3:C16"/>
   <sheetViews>
@@ -6961,7 +8241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
   <dimension ref="B3:G40"/>
   <sheetViews>
@@ -7650,7 +8930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B68D1-1680-4CB8-ABD2-1A68B7B4C287}">
   <dimension ref="A2:I13"/>
   <sheetViews>
@@ -7680,18 +8960,18 @@
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83221ACF-A4FF-46CD-AF7E-5A6D696E251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7155257F-00DC-4A24-8576-D4EEE9CBDEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="584">
   <si>
     <t>No</t>
   </si>
@@ -1658,6 +1658,144 @@
   </si>
   <si>
     <t>2.102</t>
+  </si>
+  <si>
+    <t>Error ketika print BK untuk transaksi honor, nomor BK 2303000652</t>
+  </si>
+  <si>
+    <t>Gagal parsing karakter Tab pada json</t>
+  </si>
+  <si>
+    <t>2.103</t>
+  </si>
+  <si>
+    <t>Update Bugfix #205</t>
+  </si>
+  <si>
+    <t>Update fitur renkas ke aplikasi SBP dan PEM untuk testing</t>
+  </si>
+  <si>
+    <t>Bug view error di laporan renkas ketika data kosong</t>
+  </si>
+  <si>
+    <t>Perbaikan data kosong di FE view laporan</t>
+  </si>
+  <si>
+    <t>2.104</t>
+  </si>
+  <si>
+    <t>Ada data konkin kosong</t>
+  </si>
+  <si>
+    <t>Update Bugfix #208</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>Update fitur renkas ke aplikasi PEP</t>
+  </si>
+  <si>
+    <t>Rapat dengan SBP dan PEP membahas pengembangan SIK</t>
+  </si>
+  <si>
+    <t>Form error</t>
+  </si>
+  <si>
+    <t>Perbaikan form jadwal renkas</t>
+  </si>
+  <si>
+    <t>Bug di renkas editor mingguan tidak bisa di klik selesai karena cell dianggap tidak kosong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug di renkas editor, kesalahan jenis filter </t>
+  </si>
+  <si>
+    <t>Popup invalid renkas tidak memunculkan kesalahan</t>
+  </si>
+  <si>
+    <t>Filter cell kosong salah atau tidak berjalan</t>
+  </si>
+  <si>
+    <t>Perbaikan bug tambah form jadwal renkas, max bulan realisasi tidak tersimpan</t>
+  </si>
+  <si>
+    <t>2.105</t>
+  </si>
+  <si>
+    <t>2.115</t>
+  </si>
+  <si>
+    <t>2.106</t>
+  </si>
+  <si>
+    <t>2.107</t>
+  </si>
+  <si>
+    <t>2.108</t>
+  </si>
+  <si>
+    <t>2.109</t>
+  </si>
+  <si>
+    <t>Menghilangkan validasi cell kosong karena ternyata realisasi minggu/bulan tertentu bisa kosong</t>
+  </si>
+  <si>
+    <t>2.110</t>
+  </si>
+  <si>
+    <t>Validasi total renkas mingguan harus &gt; 0 sebagai indikator selesai</t>
+  </si>
+  <si>
+    <t>2.111</t>
+  </si>
+  <si>
+    <t>Perbaikan import excel, nilai empty tidak terbaca</t>
+  </si>
+  <si>
+    <t>Mengubah empty  menjadi nilai 0</t>
+  </si>
+  <si>
+    <t>2.112</t>
+  </si>
+  <si>
+    <t>Meminimalisir race data : Ketika lock hidup, editor keuangan hidup. Ketika lock off, editor keuangan mati dan editor konkin hidup.</t>
+  </si>
+  <si>
+    <t>2.113</t>
+  </si>
+  <si>
+    <t>2.114</t>
+  </si>
+  <si>
+    <t>Mengubah tipe data export renkas bulanan dari parse string menjadi parse int agar excel hasil export lebih mudah diolah</t>
+  </si>
+  <si>
+    <t>Mengupdate data tabel renkas di dashboard agar sesuai dengan tabel renkas terbaru</t>
+  </si>
+  <si>
+    <t>2.116</t>
+  </si>
+  <si>
+    <t>Mengupdate grafik di dashboard agar sesuai dengan tabel renkas terbaru</t>
+  </si>
+  <si>
+    <t>2.117</t>
+  </si>
+  <si>
+    <t>Mengubah jeda sync data renkas dari 5 detik menjadi 3 detik utk mengurangi resiko data tidak tersimpan</t>
+  </si>
+  <si>
+    <t>Menambahkan row deviasi (Renkas Riil - Realisasi SP2D) pada tabel renkas di dashboard</t>
+  </si>
+  <si>
+    <t>2.118</t>
+  </si>
+  <si>
+    <t>Mengupdate template notifikasi renkas dan menambahkan data konkin yang belum selesai update renkas mingguan</t>
+  </si>
+  <si>
+    <t>2.119</t>
   </si>
 </sst>
 </file>
@@ -2109,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J199"/>
+  <dimension ref="B2:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L196" sqref="L196"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7813,6 +7951,644 @@
       </c>
       <c r="J199" s="10" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B200" s="1">
+        <v>205</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45009.588229166664</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F200" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I200" s="3">
+        <v>45009.612692708331</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B201" s="1">
+        <v>206</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45009.612827662037</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I201" s="3">
+        <v>45009.6130962963</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B202" s="1">
+        <v>207</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45012.324298726853</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F202" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I202" s="3">
+        <v>45012.365359953707</v>
+      </c>
+      <c r="J202" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B203" s="1">
+        <v>208</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45012.365255208337</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I203" s="3">
+        <v>45012.36543125</v>
+      </c>
+      <c r="J203" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B204" s="1">
+        <v>209</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45012.366282060182</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I204" s="3">
+        <v>45012.37145752315</v>
+      </c>
+      <c r="J204" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B205" s="1">
+        <v>210</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45012.371673726855</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I205" s="3">
+        <v>45012.450084837961</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B206" s="1">
+        <v>211</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45012.449574768521</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I206" s="3">
+        <v>45012.450257291668</v>
+      </c>
+      <c r="J206" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B207" s="1">
+        <v>212</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45012.450433796294</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I207" s="3">
+        <v>45015.443674768518</v>
+      </c>
+      <c r="J207" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B208" s="1">
+        <v>213</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45012.452899999997</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I208" s="3">
+        <v>45015.443674768518</v>
+      </c>
+      <c r="J208" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B209" s="1">
+        <v>214</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45012.462308101851</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I209" s="3">
+        <v>45015.443674768518</v>
+      </c>
+      <c r="J209" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B210" s="1">
+        <v>215</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45012.462308101851</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I210" s="3">
+        <v>45015.443674768518</v>
+      </c>
+      <c r="J210" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B211" s="1">
+        <v>216</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45012.462308101851</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I211" s="3">
+        <v>45015.443674768518</v>
+      </c>
+      <c r="J211" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B212" s="1">
+        <v>217</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45013.44425925926</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I212" s="3">
+        <v>45015.444784837964</v>
+      </c>
+      <c r="J212" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B213" s="1">
+        <v>218</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45013.445277777777</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I213" s="3">
+        <v>45015.445977314812</v>
+      </c>
+      <c r="J213" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B214" s="1">
+        <v>219</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45013.44636574074</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I214" s="3">
+        <v>45015.446942361108</v>
+      </c>
+      <c r="J214" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B215" s="1">
+        <v>220</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45014.447199074071</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I215" s="3">
+        <v>45015.448220949074</v>
+      </c>
+      <c r="J215" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B216" s="1">
+        <v>221</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45014.448472222219</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I216" s="3">
+        <v>45015.448883449077</v>
+      </c>
+      <c r="J216" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B217" s="1">
+        <v>222</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45014.44903935185</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F217" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I217" s="3">
+        <v>45015.449863310183</v>
+      </c>
+      <c r="J217" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B218" s="1">
+        <v>223</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45014.450231481482</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I218" s="3">
+        <v>45015.450840625002</v>
+      </c>
+      <c r="J218" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" s="1">
+        <v>224</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45014.45103009259</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F219" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I219" s="3">
+        <v>45015.45144837963</v>
+      </c>
+      <c r="J219" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B220" s="1">
+        <v>225</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45015.451931597221</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I220" s="3">
+        <v>45015.452560069447</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B221" s="1">
+        <v>226</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45015.452881597223</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I221" s="3">
+        <v>45015.453457175929</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7155257F-00DC-4A24-8576-D4EEE9CBDEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9565BB8-51A5-44A9-879F-0C1516D32C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="rekap" sheetId="6" r:id="rId2"/>
     <sheet name="request" sheetId="3" r:id="rId3"/>
     <sheet name="rules" sheetId="2" r:id="rId4"/>
     <sheet name="rencana" sheetId="4" r:id="rId5"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="575">
   <si>
     <t>No</t>
   </si>
@@ -790,9 +790,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>progress</t>
-  </si>
-  <si>
     <t>Rencana Aktivitas</t>
   </si>
   <si>
@@ -1303,27 +1300,6 @@
     <t>2.62</t>
   </si>
   <si>
-    <t>Membuat save renkas mingguan</t>
-  </si>
-  <si>
-    <t>Membuat export import renkas bulanan</t>
-  </si>
-  <si>
-    <t>Membuat save renkas bulanan</t>
-  </si>
-  <si>
-    <t>Membuat renkas editor untuk user konkin</t>
-  </si>
-  <si>
-    <t>Membuat lock renkas hanya hidup di user. Keuangan bisa aktif meski lock hidup</t>
-  </si>
-  <si>
-    <t>Memberi tanda untuk row tidak valid di excel export</t>
-  </si>
-  <si>
-    <t>Membuat popup notifikasi di dashboard ketika ada schedule renkas yang unlock dan jadwalnya masuk</t>
-  </si>
-  <si>
     <t>Membuat mekanisme penyimpanan data untuk renkas mingguan</t>
   </si>
   <si>
@@ -1375,18 +1351,6 @@
     <t>Update fitur #149</t>
   </si>
   <si>
-    <t>Renkas scheduler konfirmasi delete. Tombol tutup tidak berfungsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menambahkan di notifikasi button redirect ke renkas editor </t>
-  </si>
-  <si>
-    <t>Menambahkan di notifikasi list konkin yang belum selesai update renkas diurutkan berdasarkan jumlah akun</t>
-  </si>
-  <si>
-    <t>Urutan aksi di renkas scheduler diubah : lock, selesai, edit, delete</t>
-  </si>
-  <si>
     <t>2.69</t>
   </si>
   <si>
@@ -1492,24 +1456,6 @@
     <t>Upgrade Server</t>
   </si>
   <si>
-    <t>Renkas Mingguan</t>
-  </si>
-  <si>
-    <t>Harap agar seluruh user konkin agar mengisi renkas mingguan</t>
-  </si>
-  <si>
-    <t>Waktu : xx/xx/xxxx s.d xx/xx/xxxx</t>
-  </si>
-  <si>
-    <t>Konkin Belum Selesai</t>
-  </si>
-  <si>
-    <t>Renkas Bulanan (Revisi POK)</t>
-  </si>
-  <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
     <t>Update fitur semua transaksi terbayar</t>
   </si>
   <si>
@@ -1796,6 +1742,33 @@
   </si>
   <si>
     <t>2.119</t>
+  </si>
+  <si>
+    <t>Update apps di server IKA dan PEM</t>
+  </si>
+  <si>
+    <t>Update bundle source code dan contoh DB versi 2.119</t>
+  </si>
+  <si>
+    <t>Testing fitur renkas dari awal sampai akhir</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Jumlah Cum</t>
+  </si>
+  <si>
+    <t>Jumlah Before</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1930,6 +1903,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,6 +1923,960 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Grafik Aktivitas Per Bulan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>rekap!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Januari</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Februari</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maret</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rekap!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8C4-409D-8929-9303B94883F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1202153535"/>
+        <c:axId val="1562185263"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1202153535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562185263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562185263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202153535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99162973-C595-5709-BA30-990FC9D2155E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,10 +3176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J221"/>
+  <dimension ref="B2:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2334,7 +3263,7 @@
         <v>44935.386104513891</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>53</v>
@@ -2421,7 +3350,7 @@
         <v>44934.386104513891</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -2595,7 +3524,7 @@
         <v>44932.413819444446</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>56</v>
@@ -2624,7 +3553,7 @@
         <v>44935.428867361108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>34</v>
@@ -2653,7 +3582,7 @@
         <v>44935.417199074072</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>39</v>
@@ -2682,7 +3611,7 @@
         <v>44935.437608449072</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>52</v>
@@ -2740,7 +3669,7 @@
         <v>44935.455950694442</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>45</v>
@@ -2798,7 +3727,7 @@
         <v>44935.613376041663</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>51</v>
@@ -2856,7 +3785,7 @@
         <v>44936.365637152776</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>54</v>
@@ -2885,7 +3814,7 @@
         <v>44936.40730324074</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>58</v>
@@ -2914,7 +3843,7 @@
         <v>44936.482421064815</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>61</v>
@@ -2943,7 +3872,7 @@
         <v>44936.579013310184</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>65</v>
@@ -2972,7 +3901,7 @@
         <v>44936.581720486109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>66</v>
@@ -3030,7 +3959,7 @@
         <v>44937.428449652776</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>72</v>
@@ -3088,7 +4017,7 @@
         <v>44939.397110763886</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>81</v>
@@ -3146,7 +4075,7 @@
         <v>44939.3977443287</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>84</v>
@@ -3175,7 +4104,7 @@
         <v>44939.398294328705</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>78</v>
@@ -3204,7 +4133,7 @@
         <v>44939.416979166665</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>87</v>
@@ -3233,7 +4162,7 @@
         <v>44939.464342708336</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>90</v>
@@ -3291,7 +4220,7 @@
         <v>44942.546568749996</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>96</v>
@@ -3349,7 +4278,7 @@
         <v>44950.370423263892</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>101</v>
@@ -3407,7 +4336,7 @@
         <v>44950.391869791667</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>107</v>
@@ -3436,7 +4365,7 @@
         <v>44950.411545833333</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>108</v>
@@ -3465,7 +4394,7 @@
         <v>44950.610205324076</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>123</v>
@@ -3494,7 +4423,7 @@
         <v>44950.662232523151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>129</v>
@@ -3639,7 +4568,7 @@
         <v>44957.389495370371</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>149</v>
@@ -3755,7 +4684,7 @@
         <v>44957.391038657406</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>152</v>
@@ -3784,7 +4713,7 @@
         <v>44958.398888888885</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>141</v>
@@ -3813,7 +4742,7 @@
         <v>44958.398888888885</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>143</v>
@@ -3842,7 +4771,7 @@
         <v>44959.358236689812</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>155</v>
@@ -3871,7 +4800,7 @@
         <v>44959.577650462961</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>157</v>
@@ -3958,7 +4887,7 @@
         <v>44963.431282523146</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>167</v>
@@ -4045,7 +4974,7 @@
         <v>44970.62840671296</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>173</v>
@@ -4074,7 +5003,7 @@
         <v>44971.505162037036</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>174</v>
@@ -4219,7 +5148,7 @@
         <v>44972.400960648149</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>190</v>
@@ -4335,7 +5264,7 @@
         <v>44978.620859953706</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>201</v>
@@ -4422,7 +5351,7 @@
         <v>44979.459144560184</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>206</v>
@@ -4509,7 +5438,7 @@
         <v>44979.490578703706</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>216</v>
@@ -4715,7 +5644,7 @@
         <v>231</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>218</v>
@@ -4744,13 +5673,13 @@
         <v>97</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>60</v>
@@ -4773,13 +5702,13 @@
         <v>97</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>218</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>60</v>
@@ -4788,7 +5717,7 @@
         <v>44984.657196296299</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4802,13 +5731,13 @@
         <v>97</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>60</v>
@@ -4817,7 +5746,7 @@
         <v>44984.65042002315</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
@@ -4831,13 +5760,13 @@
         <v>97</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>60</v>
@@ -4846,7 +5775,7 @@
         <v>44985.243208333333</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
@@ -4860,17 +5789,17 @@
         <v>5</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>223</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" s="7"/>
       <c r="J93" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
@@ -4884,13 +5813,13 @@
         <v>4</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>60</v>
@@ -4907,10 +5836,10 @@
         <v>44985.396645370369</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>124</v>
@@ -4925,7 +5854,7 @@
         <v>44985.552505902779</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
@@ -4939,13 +5868,13 @@
         <v>4</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>60</v>
@@ -4954,7 +5883,7 @@
         <v>44985.553685300925</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -4965,10 +5894,10 @@
         <v>44985.553843402777</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>62</v>
@@ -4983,7 +5912,7 @@
         <v>44985.554113425926</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -4997,13 +5926,13 @@
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>60</v>
@@ -5012,7 +5941,7 @@
         <v>44985.587797569446</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -5026,7 +5955,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>223</v>
@@ -5041,7 +5970,7 @@
         <v>44985.587797569446</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5055,13 +5984,13 @@
         <v>97</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>60</v>
@@ -5070,7 +5999,7 @@
         <v>44985.620917361113</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
@@ -5084,13 +6013,13 @@
         <v>97</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>60</v>
@@ -5099,7 +6028,7 @@
         <v>44985.621666550927</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -5110,10 +6039,10 @@
         <v>44986.319992245371</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>46</v>
@@ -5128,7 +6057,7 @@
         <v>44986.389830671294</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
@@ -5142,13 +6071,13 @@
         <v>4</v>
       </c>
       <c r="E103" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>60</v>
@@ -5157,7 +6086,7 @@
         <v>44986.357037268521</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.3">
@@ -5168,16 +6097,16 @@
         <v>44986.357234143521</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="F104" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>60</v>
@@ -5186,7 +6115,7 @@
         <v>44986.357782291663</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5200,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>223</v>
@@ -5215,7 +6144,7 @@
         <v>44986.386072106485</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.3">
@@ -5226,10 +6155,10 @@
         <v>44986.389079745371</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>124</v>
@@ -5244,7 +6173,7 @@
         <v>44986.389967129631</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
@@ -5258,13 +6187,13 @@
         <v>4</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>60</v>
@@ -5273,7 +6202,7 @@
         <v>44986.40926458333</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
@@ -5287,13 +6216,13 @@
         <v>4</v>
       </c>
       <c r="E108" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>60</v>
@@ -5302,7 +6231,7 @@
         <v>44986.556490740739</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
@@ -5316,7 +6245,7 @@
         <v>231</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>218</v>
@@ -5331,7 +6260,7 @@
         <v>44986.654023263887</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5345,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>218</v>
@@ -5360,7 +6289,7 @@
         <v>44987.372363773145</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
@@ -5374,7 +6303,7 @@
         <v>231</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>218</v>
@@ -5389,7 +6318,7 @@
         <v>44987.589594907404</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.3">
@@ -5403,7 +6332,7 @@
         <v>231</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>218</v>
@@ -5418,7 +6347,7 @@
         <v>44987.590266203704</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
@@ -5432,13 +6361,13 @@
         <v>4</v>
       </c>
       <c r="E113" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>60</v>
@@ -5447,7 +6376,7 @@
         <v>44987.542303240742</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
@@ -5461,13 +6390,13 @@
         <v>4</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>60</v>
@@ -5476,7 +6405,7 @@
         <v>44988.426863425928</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
@@ -5490,7 +6419,7 @@
         <v>231</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>218</v>
@@ -5505,7 +6434,7 @@
         <v>44988.59462916667</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
@@ -5519,7 +6448,7 @@
         <v>231</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>218</v>
@@ -5534,7 +6463,7 @@
         <v>44988.595670486109</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
@@ -5548,7 +6477,7 @@
         <v>231</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>218</v>
@@ -5563,7 +6492,7 @@
         <v>44988.596437037035</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
@@ -5577,7 +6506,7 @@
         <v>231</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>218</v>
@@ -5592,7 +6521,7 @@
         <v>44988.597641898152</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -5606,7 +6535,7 @@
         <v>231</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>218</v>
@@ -5621,7 +6550,7 @@
         <v>44988.65401435185</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
@@ -5635,13 +6564,13 @@
         <v>21</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>60</v>
@@ -5650,7 +6579,7 @@
         <v>44988.666585300925</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5664,13 +6593,13 @@
         <v>12</v>
       </c>
       <c r="E121" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="G121" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>60</v>
@@ -5679,7 +6608,7 @@
         <v>44991.586659490742</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
@@ -5690,10 +6619,10 @@
         <v>44991.429526736109</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>169</v>
@@ -5708,7 +6637,7 @@
         <v>44991.430120254627</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5719,16 +6648,16 @@
         <v>44991.430221759256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>60</v>
@@ -5737,7 +6666,7 @@
         <v>44991.430718402778</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
@@ -5748,16 +6677,16 @@
         <v>44991.431178125</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>60</v>
@@ -5766,7 +6695,7 @@
         <v>44991.557791087966</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
@@ -5780,13 +6709,13 @@
         <v>12</v>
       </c>
       <c r="E125" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>60</v>
@@ -5795,7 +6724,7 @@
         <v>44991.59192673611</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
@@ -5806,10 +6735,10 @@
         <v>44991.592311921297</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>46</v>
@@ -5824,7 +6753,7 @@
         <v>44991.592623842589</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5838,13 +6767,13 @@
         <v>97</v>
       </c>
       <c r="E127" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F127" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>60</v>
@@ -5853,7 +6782,7 @@
         <v>44991.622705555557</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
@@ -5867,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>124</v>
@@ -5882,7 +6811,7 @@
         <v>44992.355056712964</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -5896,13 +6825,13 @@
         <v>4</v>
       </c>
       <c r="E129" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>60</v>
@@ -5911,7 +6840,7 @@
         <v>44992.573379629626</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
@@ -5922,13 +6851,13 @@
         <v>44992.574251736114</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>46</v>
@@ -5940,7 +6869,7 @@
         <v>44992.574553009261</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
@@ -5951,16 +6880,16 @@
         <v>44993.353979976855</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E131" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="G131" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>60</v>
@@ -5969,7 +6898,7 @@
         <v>44993.401742592592</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
@@ -5983,7 +6912,7 @@
         <v>21</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>218</v>
@@ -5998,7 +6927,7 @@
         <v>44993.43165486111</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
@@ -6012,7 +6941,7 @@
         <v>4</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>218</v>
@@ -6027,7 +6956,7 @@
         <v>44993.431593634261</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6035,13 +6964,13 @@
         <v>129</v>
       </c>
       <c r="C134" s="2">
-        <v>44993.431855787036</v>
+        <v>44993.431851851848</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>218</v>
@@ -6056,7 +6985,7 @@
         <v>44993.545805324073</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
@@ -6067,10 +6996,10 @@
         <v>44993.546408333335</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>124</v>
@@ -6085,7 +7014,7 @@
         <v>44993.546514814814</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -6099,7 +7028,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>223</v>
@@ -6114,7 +7043,7 @@
         <v>44993.568745254626</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
@@ -6128,7 +7057,7 @@
         <v>231</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>218</v>
@@ -6137,13 +7066,13 @@
         <v>218</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I137" s="3">
         <v>44994.339222569448</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
@@ -6157,13 +7086,13 @@
         <v>4</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>60</v>
@@ -6172,7 +7101,7 @@
         <v>44994.338704861111</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
@@ -6183,13 +7112,13 @@
         <v>44994.345809375001</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>46</v>
@@ -6201,7 +7130,7 @@
         <v>44994.346157638887</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.3">
@@ -6215,7 +7144,7 @@
         <v>231</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>231</v>
@@ -6230,7 +7159,7 @@
         <v>44994.417079398147</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
@@ -6244,13 +7173,13 @@
         <v>231</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>60</v>
@@ -6259,7 +7188,7 @@
         <v>44994.642944675928</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
@@ -6273,7 +7202,7 @@
         <v>231</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>231</v>
@@ -6288,7 +7217,7 @@
         <v>44994.643655092594</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
@@ -6302,7 +7231,7 @@
         <v>231</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>231</v>
@@ -6311,13 +7240,13 @@
         <v>231</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I143" s="3">
         <v>44994.644074421296</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
@@ -6331,7 +7260,7 @@
         <v>231</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>231</v>
@@ -6346,7 +7275,7 @@
         <v>44994.645851967594</v>
       </c>
       <c r="J144" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6360,7 +7289,7 @@
         <v>231</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>231</v>
@@ -6375,7 +7304,7 @@
         <v>44995.343966087959</v>
       </c>
       <c r="J145" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
@@ -6389,7 +7318,7 @@
         <v>231</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>231</v>
@@ -6404,7 +7333,7 @@
         <v>44995.349322685186</v>
       </c>
       <c r="J146" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
@@ -6418,7 +7347,7 @@
         <v>231</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>231</v>
@@ -6433,7 +7362,7 @@
         <v>44995.527346296294</v>
       </c>
       <c r="J147" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6447,7 +7376,7 @@
         <v>21</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>223</v>
@@ -6462,7 +7391,7 @@
         <v>44995.528087847226</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6476,7 +7405,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>231</v>
@@ -6491,7 +7420,7 @@
         <v>44995.556426157411</v>
       </c>
       <c r="J149" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
@@ -6505,7 +7434,7 @@
         <v>21</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>231</v>
@@ -6520,7 +7449,7 @@
         <v>44995.560042129633</v>
       </c>
       <c r="J150" s="10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
@@ -6531,10 +7460,10 @@
         <v>44995.557433217589</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>124</v>
@@ -6549,7 +7478,7 @@
         <v>44995.564123958335</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
@@ -6563,13 +7492,13 @@
         <v>4</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>60</v>
@@ -6578,7 +7507,7 @@
         <v>44995.564843749999</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
@@ -6589,10 +7518,10 @@
         <v>44995.565011921295</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>46</v>
@@ -6607,7 +7536,7 @@
         <v>44995.565349305558</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
@@ -6621,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>124</v>
@@ -6636,7 +7565,7 @@
         <v>44995.56969236111</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
@@ -6647,10 +7576,10 @@
         <v>44995.569892129628</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>124</v>
@@ -6665,7 +7594,7 @@
         <v>44995.57023553241</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
@@ -6679,7 +7608,7 @@
         <v>231</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>231</v>
@@ -6694,7 +7623,7 @@
         <v>44998.437474768521</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
@@ -6708,7 +7637,7 @@
         <v>231</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>231</v>
@@ -6723,7 +7652,7 @@
         <v>44998.436926851849</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
@@ -6737,7 +7666,7 @@
         <v>231</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>231</v>
@@ -6752,7 +7681,7 @@
         <v>44998.537019328702</v>
       </c>
       <c r="J158" s="10" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6766,7 +7695,7 @@
         <v>231</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>231</v>
@@ -6781,7 +7710,7 @@
         <v>44998.580438310186</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
@@ -6795,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>223</v>
@@ -6810,7 +7739,7 @@
         <v>44998.580550694445</v>
       </c>
       <c r="J160" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
@@ -6824,7 +7753,7 @@
         <v>231</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>231</v>
@@ -6839,7 +7768,7 @@
         <v>44998.580942361114</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6853,7 +7782,7 @@
         <v>231</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F162" s="7" t="s">
         <v>231</v>
@@ -6868,7 +7797,7 @@
         <v>44998.581869212961</v>
       </c>
       <c r="J162" s="10" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6882,7 +7811,7 @@
         <v>231</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>231</v>
@@ -6897,7 +7826,7 @@
         <v>44998.583475347223</v>
       </c>
       <c r="J163" s="10" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
@@ -6911,7 +7840,7 @@
         <v>231</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>46</v>
@@ -6926,7 +7855,7 @@
         <v>44998.584973726851</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
@@ -6940,7 +7869,7 @@
         <v>231</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>231</v>
@@ -6955,7 +7884,7 @@
         <v>44998.587317592595</v>
       </c>
       <c r="J165" s="10" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
@@ -6969,13 +7898,13 @@
         <v>21</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>60</v>
@@ -6984,7 +7913,7 @@
         <v>45000.351534953705</v>
       </c>
       <c r="J166" s="10" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
@@ -6998,7 +7927,7 @@
         <v>4</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F167" s="7" t="s">
         <v>46</v>
@@ -7013,7 +7942,7 @@
         <v>45000.352948148146</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
@@ -7027,7 +7956,7 @@
         <v>231</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>46</v>
@@ -7042,7 +7971,7 @@
         <v>45001.349482523146</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
@@ -7056,7 +7985,7 @@
         <v>231</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>231</v>
@@ -7071,7 +8000,7 @@
         <v>45001.359586805556</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
@@ -7085,7 +8014,7 @@
         <v>231</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>231</v>
@@ -7100,7 +8029,7 @@
         <v>45001.367732523147</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
@@ -7114,7 +8043,7 @@
         <v>231</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F171" s="7" t="s">
         <v>231</v>
@@ -7129,7 +8058,7 @@
         <v>45001.367795370374</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7143,7 +8072,7 @@
         <v>231</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>231</v>
@@ -7158,7 +8087,7 @@
         <v>45002.338765046297</v>
       </c>
       <c r="J172" s="10" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
@@ -7172,13 +8101,13 @@
         <v>21</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>60</v>
@@ -7187,7 +8116,7 @@
         <v>45001.38619016204</v>
       </c>
       <c r="J173" s="10" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
@@ -7198,16 +8127,16 @@
         <v>45001.386370486114</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>60</v>
@@ -7216,7 +8145,7 @@
         <v>45002.338869097221</v>
       </c>
       <c r="J174" s="10" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
@@ -7227,10 +8156,10 @@
         <v>45002.338003819445</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>124</v>
@@ -7245,7 +8174,7 @@
         <v>45002.346978240741</v>
       </c>
       <c r="J175" s="10" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7259,13 +8188,13 @@
         <v>21</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>60</v>
@@ -7274,7 +8203,7 @@
         <v>45002.37260347222</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
@@ -7285,10 +8214,10 @@
         <v>45002.369234837963</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>46</v>
@@ -7303,7 +8232,7 @@
         <v>45002.377703935184</v>
       </c>
       <c r="J177" s="10" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
@@ -7317,7 +8246,7 @@
         <v>231</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>231</v>
@@ -7332,7 +8261,7 @@
         <v>45002.555561342589</v>
       </c>
       <c r="J178" s="10" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.3">
@@ -7346,7 +8275,7 @@
         <v>231</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>231</v>
@@ -7361,7 +8290,7 @@
         <v>45002.556055324072</v>
       </c>
       <c r="J179" s="10" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.3">
@@ -7375,7 +8304,7 @@
         <v>231</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>231</v>
@@ -7390,7 +8319,7 @@
         <v>45002.556763194443</v>
       </c>
       <c r="J180" s="10" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.3">
@@ -7404,7 +8333,7 @@
         <v>231</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>231</v>
@@ -7419,7 +8348,7 @@
         <v>45005.591960069447</v>
       </c>
       <c r="J181" s="10" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.3">
@@ -7433,7 +8362,7 @@
         <v>231</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>231</v>
@@ -7448,7 +8377,7 @@
         <v>45005.591891203701</v>
       </c>
       <c r="J182" s="10" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7462,7 +8391,7 @@
         <v>231</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>231</v>
@@ -7477,7 +8406,7 @@
         <v>45005.59266736111</v>
       </c>
       <c r="J183" s="10" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.3">
@@ -7491,7 +8420,7 @@
         <v>231</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>231</v>
@@ -7506,7 +8435,7 @@
         <v>45005.593600694447</v>
       </c>
       <c r="J184" s="10" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7520,7 +8449,7 @@
         <v>231</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>231</v>
@@ -7535,7 +8464,7 @@
         <v>45005.594569791669</v>
       </c>
       <c r="J185" s="10" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.3">
@@ -7549,7 +8478,7 @@
         <v>231</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>231</v>
@@ -7564,7 +8493,7 @@
         <v>45005.656632754632</v>
       </c>
       <c r="J186" s="10" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
@@ -7578,7 +8507,7 @@
         <v>231</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>231</v>
@@ -7593,7 +8522,7 @@
         <v>45005.60603657407</v>
       </c>
       <c r="J187" s="10" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
@@ -7607,13 +8536,13 @@
         <v>21</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>60</v>
@@ -7622,7 +8551,7 @@
         <v>45005.489479166667</v>
       </c>
       <c r="J188" s="10" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="189" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7636,7 +8565,7 @@
         <v>231</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>231</v>
@@ -7651,7 +8580,7 @@
         <v>45007.646424999999</v>
       </c>
       <c r="J189" s="10" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="190" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7665,7 +8594,7 @@
         <v>231</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>231</v>
@@ -7680,7 +8609,7 @@
         <v>45007.643646412034</v>
       </c>
       <c r="J190" s="10" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7694,7 +8623,7 @@
         <v>231</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>231</v>
@@ -7710,7 +8639,7 @@
         <v>45009.576626620372</v>
       </c>
       <c r="J191" s="10" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="192" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7724,7 +8653,7 @@
         <v>231</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>231</v>
@@ -7740,7 +8669,7 @@
         <v>45009.57672488426</v>
       </c>
       <c r="J192" s="10" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7754,7 +8683,7 @@
         <v>231</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>231</v>
@@ -7770,7 +8699,7 @@
         <v>45009.57679259259</v>
       </c>
       <c r="J193" s="10" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.3">
@@ -7784,7 +8713,7 @@
         <v>231</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>231</v>
@@ -7800,7 +8729,7 @@
         <v>45009.576862847221</v>
       </c>
       <c r="J194" s="10" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.3">
@@ -7814,7 +8743,7 @@
         <v>231</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>231</v>
@@ -7830,7 +8759,7 @@
         <v>45009.576930902775</v>
       </c>
       <c r="J195" s="10" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="196" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7844,7 +8773,7 @@
         <v>231</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F196" s="7" t="s">
         <v>231</v>
@@ -7860,7 +8789,7 @@
         <v>45009.576987152781</v>
       </c>
       <c r="J196" s="10" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7874,7 +8803,7 @@
         <v>231</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>231</v>
@@ -7890,7 +8819,7 @@
         <v>45009.577043055557</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7904,7 +8833,7 @@
         <v>231</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>231</v>
@@ -7920,7 +8849,7 @@
         <v>45009.577097569447</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7934,7 +8863,7 @@
         <v>231</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>231</v>
@@ -7950,7 +8879,7 @@
         <v>45009.577158333334</v>
       </c>
       <c r="J199" s="10" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7964,10 +8893,10 @@
         <v>12</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="G200" s="7" t="s">
         <v>204</v>
@@ -7979,7 +8908,7 @@
         <v>45009.612692708331</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.3">
@@ -7990,10 +8919,10 @@
         <v>45009.612827662037</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>46</v>
@@ -8008,7 +8937,7 @@
         <v>45009.6130962963</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.3">
@@ -8019,10 +8948,10 @@
         <v>45012.324298726853</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>124</v>
@@ -8037,7 +8966,7 @@
         <v>45012.365359953707</v>
       </c>
       <c r="J202" s="10" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.3">
@@ -8051,13 +8980,13 @@
         <v>21</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>60</v>
@@ -8066,7 +8995,7 @@
         <v>45012.36543125</v>
       </c>
       <c r="J203" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.3">
@@ -8080,7 +9009,7 @@
         <v>4</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>46</v>
@@ -8095,7 +9024,7 @@
         <v>45012.37145752315</v>
       </c>
       <c r="J204" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.3">
@@ -8106,10 +9035,10 @@
         <v>45012.371673726855</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>124</v>
@@ -8124,7 +9053,7 @@
         <v>45012.450084837961</v>
       </c>
       <c r="J205" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.3">
@@ -8135,16 +9064,16 @@
         <v>45012.449574768521</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>60</v>
@@ -8153,7 +9082,7 @@
         <v>45012.450257291668</v>
       </c>
       <c r="J206" s="10" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8167,13 +9096,13 @@
         <v>231</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="H207" s="7" t="s">
         <v>60</v>
@@ -8182,7 +9111,7 @@
         <v>45015.443674768518</v>
       </c>
       <c r="J207" s="10" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8196,7 +9125,7 @@
         <v>231</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>231</v>
@@ -8211,7 +9140,7 @@
         <v>45015.443674768518</v>
       </c>
       <c r="J208" s="10" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.3">
@@ -8225,7 +9154,7 @@
         <v>231</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>231</v>
@@ -8240,7 +9169,7 @@
         <v>45015.443674768518</v>
       </c>
       <c r="J209" s="10" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.3">
@@ -8254,7 +9183,7 @@
         <v>231</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>231</v>
@@ -8269,7 +9198,7 @@
         <v>45015.443674768518</v>
       </c>
       <c r="J210" s="10" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.3">
@@ -8283,7 +9212,7 @@
         <v>231</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>231</v>
@@ -8298,7 +9227,7 @@
         <v>45015.443674768518</v>
       </c>
       <c r="J211" s="10" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8312,7 +9241,7 @@
         <v>231</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>231</v>
@@ -8327,7 +9256,7 @@
         <v>45015.444784837964</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.3">
@@ -8341,7 +9270,7 @@
         <v>231</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>231</v>
@@ -8356,7 +9285,7 @@
         <v>45015.445977314812</v>
       </c>
       <c r="J213" s="10" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.3">
@@ -8370,13 +9299,13 @@
         <v>231</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>231</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>60</v>
@@ -8385,7 +9314,7 @@
         <v>45015.446942361108</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="215" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8399,7 +9328,7 @@
         <v>231</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>231</v>
@@ -8414,7 +9343,7 @@
         <v>45015.448220949074</v>
       </c>
       <c r="J215" s="10" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="216" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8428,7 +9357,7 @@
         <v>231</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>231</v>
@@ -8443,7 +9372,7 @@
         <v>45015.448883449077</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="217" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8457,7 +9386,7 @@
         <v>231</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="F217" s="7" t="s">
         <v>231</v>
@@ -8472,7 +9401,7 @@
         <v>45015.449863310183</v>
       </c>
       <c r="J217" s="10" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="218" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8486,7 +9415,7 @@
         <v>231</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>231</v>
@@ -8501,7 +9430,7 @@
         <v>45015.450840625002</v>
       </c>
       <c r="J218" s="10" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8515,7 +9444,7 @@
         <v>231</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>231</v>
@@ -8530,7 +9459,7 @@
         <v>45015.45144837963</v>
       </c>
       <c r="J219" s="10" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="220" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8544,7 +9473,7 @@
         <v>231</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>231</v>
@@ -8559,7 +9488,7 @@
         <v>45015.452560069447</v>
       </c>
       <c r="J220" s="10" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8573,7 +9502,7 @@
         <v>231</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F221" s="7" t="s">
         <v>231</v>
@@ -8588,7 +9517,94 @@
         <v>45015.453457175929</v>
       </c>
       <c r="J221" s="10" t="s">
-        <v>583</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B222" s="1">
+        <v>227</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45015.455110069444</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I222" s="3">
+        <v>45015.456090624997</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B223" s="1">
+        <v>228</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45015.456388310187</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I223" s="3">
+        <v>45015.456878935183</v>
+      </c>
+      <c r="J223" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B224" s="1">
+        <v>229</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45015.437789351854</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I224" s="3">
+        <v>45015.458469907404</v>
+      </c>
+      <c r="J224" s="10" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -8601,63 +9617,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B0E20-65D0-4989-995D-D98A903753DA}">
-  <dimension ref="C9:F17"/>
+  <dimension ref="B6:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="E9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F14" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>485</v>
-      </c>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="23">
+        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-02-01")</f>
+        <v>51</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <f>C7-D7</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="23">
+        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-03-01")</f>
+        <v>97</v>
+      </c>
+      <c r="D8" s="23">
+        <f>C7</f>
+        <v>51</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" ref="E8:E10" si="0">C8-D8</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="23">
+        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-04-01")</f>
+        <v>220</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:D10" si="1">C8</f>
+        <v>97</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="23">
+        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-05-01")</f>
+        <v>220</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8665,8 +9725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
   <dimension ref="B3:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8708,12 +9768,6 @@
       <c r="G4" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>419</v>
-      </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -8734,12 +9788,6 @@
       <c r="G5" s="3">
         <v>44932.413819444446</v>
       </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -8755,12 +9803,6 @@
         <v>225</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -8776,12 +9818,6 @@
         <v>226</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="K7" s="1">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>422</v>
-      </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -8797,12 +9833,6 @@
         <v>227</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="K8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>423</v>
-      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -8818,12 +9848,6 @@
         <v>228</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="K9" s="1">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -8839,44 +9863,6 @@
         <v>229</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
-      <c r="L10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K11" s="1">
-        <v>8</v>
-      </c>
-      <c r="L11" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K12" s="1">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K13" s="1">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K14" s="1">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="L15" s="2"/>
@@ -9021,8 +10007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
   <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9035,7 +10021,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -9070,10 +10056,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="2">
         <v>44985.554659837966</v>
@@ -9093,7 +10079,10 @@
         <v>246</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -9110,7 +10099,10 @@
         <v>237</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -9129,6 +10121,9 @@
       <c r="F8" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G8" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -9146,6 +10141,9 @@
       <c r="F9" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G9" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -9163,6 +10161,9 @@
       <c r="F10" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G10" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
@@ -9175,10 +10176,13 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -9195,7 +10199,10 @@
         <v>239</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -9214,6 +10221,9 @@
       <c r="F13" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G13" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -9231,6 +10241,9 @@
       <c r="F14" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G14" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -9248,6 +10261,9 @@
       <c r="F15" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G15" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -9265,6 +10281,9 @@
       <c r="F16" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="G16" s="2">
+        <v>45015.519108680557</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
@@ -9274,13 +10293,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F17" t="s">
-        <v>268</v>
+        <v>249</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="G17" s="2">
         <v>44984.657637847224</v>
@@ -9294,13 +10313,13 @@
         <v>44984.625917824073</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -9314,10 +10333,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="2">
         <v>44986.386444560187</v>
@@ -9334,10 +10353,13 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -9351,10 +10373,13 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -9368,10 +10393,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -9385,10 +10410,10 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -9402,10 +10427,10 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -9419,10 +10444,10 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -9436,10 +10461,10 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -9453,10 +10478,10 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -9470,10 +10495,10 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G28" s="2">
         <v>44986.354993634261</v>
@@ -9490,10 +10515,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G29" s="2">
         <v>44986.355471759256</v>
@@ -9510,10 +10535,10 @@
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G30" s="2">
         <v>44993.581367013889</v>
@@ -9530,10 +10555,13 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
@@ -9547,10 +10575,13 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -9564,10 +10595,13 @@
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>248</v>
+        <v>267</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -9581,10 +10615,13 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -9598,10 +10635,10 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G35" s="2">
         <v>44993.580922685185</v>
@@ -9618,10 +10655,10 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G36" s="2">
         <v>44993.581042708334</v>
@@ -9638,10 +10675,10 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G37" s="2">
         <v>44993.448870370368</v>
@@ -9658,10 +10695,10 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G38" s="2">
         <v>44993.580724189815</v>
@@ -9678,10 +10715,13 @@
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -9695,10 +10735,13 @@
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45015.519108680557</v>
       </c>
     </row>
   </sheetData>
@@ -9729,108 +10772,108 @@
   <sheetData>
     <row r="2" spans="1:9" ht="19.8" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>328</v>
-      </c>
       <c r="F5" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9565BB8-51A5-44A9-879F-0C1516D32C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76021322-72C9-4D6F-91AA-5EED603FD336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="rekap" sheetId="6" r:id="rId2"/>
     <sheet name="request" sheetId="3" r:id="rId3"/>
-    <sheet name="rules" sheetId="2" r:id="rId4"/>
-    <sheet name="rencana" sheetId="4" r:id="rId5"/>
+    <sheet name="rencana" sheetId="4" r:id="rId4"/>
+    <sheet name="rules" sheetId="2" r:id="rId5"/>
     <sheet name="report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="578">
   <si>
     <t>No</t>
   </si>
@@ -1769,6 +1769,15 @@
   </si>
   <si>
     <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Bug di menu Plan di Support Release</t>
+  </si>
+  <si>
+    <t>Gagal parse</t>
+  </si>
+  <si>
+    <t>Update code utk parse</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2120,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>123</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2842,14 +2851,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3176,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J224"/>
+  <dimension ref="B2:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView topLeftCell="C208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9607,6 +9616,26 @@
         <v>565</v>
       </c>
     </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B225" s="1">
+        <v>230</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45015.522730902776</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9620,7 +9649,7 @@
   <dimension ref="B6:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9683,7 +9712,7 @@
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(logs!C$5:C$348, "&lt;2023-04-01")</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:D10" si="1">C8</f>
@@ -9691,7 +9720,7 @@
       </c>
       <c r="E9" s="23">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -9700,11 +9729,11 @@
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(logs!C$5:C$348, "&lt;2023-05-01")</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>
@@ -9911,6 +9940,752 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
+  <dimension ref="B3:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44985.554659837966</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44984.456495949074</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44984.517227546297</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44984.518630787039</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44984.625917824073</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44984.657637847224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44984.625917824073</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44985.337925347223</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44986.386444560187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44985.557593865742</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44985.558699768517</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44986.344380671297</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44987.344380671297</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44988.344380671297</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44989.344380671297</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44990.344380671297</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44991.344380671297</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44986.353972106481</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44986.354993634261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44986.355116203704</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44986.355471759256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44986.362310185184</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="2">
+        <v>44993.581367013889</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44987.362310127312</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44987.345125231484</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44987.373828240743</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44988.598107523147</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44991.561652893521</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44993.580922685185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44991.562117592592</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="2">
+        <v>44993.581042708334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44993.341156249997</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44993.448870370368</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44993.448177893515</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44993.580724189815</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44994.644389120367</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44994.654109143521</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>411</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45015.519108680557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
   <dimension ref="B3:C16"/>
   <sheetViews>
@@ -10000,752 +10775,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
-  <dimension ref="B3:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44985.554659837966</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44984.456495949074</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44984.517227546297</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44984.518630787039</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44984.518630787039</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44984.518630787039</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44984.518630787039</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44984.518630787039</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44984.625917824073</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="2">
-        <v>44984.657637847224</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44984.625917824073</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44985.337925347223</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" s="2">
-        <v>44986.386444560187</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44985.557593865742</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44985.558699768517</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>282</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44986.344380671297</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <v>44987.344380671297</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44988.344380671297</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44989.344380671297</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44990.344380671297</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>23</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44991.344380671297</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44986.353972106481</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44986.354993634261</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44986.355116203704</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G29" s="2">
-        <v>44986.355471759256</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44986.362310185184</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>303</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" s="2">
-        <v>44993.581367013889</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44987.362310127312</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44987.345125231484</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>334</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44987.373828240743</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>335</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G33" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44988.598107523147</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G34" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44991.561652893521</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>361</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G35" s="2">
-        <v>44993.580922685185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>32</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44991.562117592592</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>360</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G36" s="2">
-        <v>44993.581042708334</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2">
-        <v>44993.341156249997</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>379</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="2">
-        <v>44993.448870370368</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>44993.448177893515</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="2">
-        <v>44993.580724189815</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>35</v>
-      </c>
-      <c r="C39" s="2">
-        <v>44994.644389120367</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G39" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2">
-        <v>44994.654109143521</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>411</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G40" s="2">
-        <v>45015.519108680557</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76021322-72C9-4D6F-91AA-5EED603FD336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C2609-D49C-4E80-9CB0-0FDD32BBE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
     <sheet name="rekap" sheetId="6" r:id="rId2"/>
-    <sheet name="request" sheetId="3" r:id="rId3"/>
-    <sheet name="rencana" sheetId="4" r:id="rId4"/>
-    <sheet name="rules" sheetId="2" r:id="rId5"/>
+    <sheet name="rules" sheetId="2" r:id="rId3"/>
+    <sheet name="request" sheetId="3" r:id="rId4"/>
+    <sheet name="rencana" sheetId="4" r:id="rId5"/>
     <sheet name="report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -9751,6 +9751,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
+  <dimension ref="B3:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D74610-CD6A-4CAC-AE94-F3B089454F83}">
   <dimension ref="B3:Q19"/>
   <sheetViews>
@@ -9939,7 +10032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
   <dimension ref="B3:G40"/>
   <sheetViews>
@@ -10682,99 +10775,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E09A73-1A30-42FD-A5CF-6DD166654449}">
-  <dimension ref="B3:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C2609-D49C-4E80-9CB0-0FDD32BBE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C689A8B9-4EC7-4B2B-BDE0-C0EDAB4A41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="579">
   <si>
     <t>No</t>
   </si>
@@ -1778,6 +1778,9 @@
   </si>
   <si>
     <t>Update code utk parse</t>
+  </si>
+  <si>
+    <t>2.120</t>
   </si>
 </sst>
 </file>
@@ -3187,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
   <dimension ref="B2:J225"/>
   <sheetViews>
-    <sheetView topLeftCell="C208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H225" sqref="H225"/>
+    <sheetView tabSelected="1" topLeftCell="F208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J226" sqref="J226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9616,7 +9619,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <v>230</v>
       </c>
@@ -9634,6 +9637,15 @@
       </c>
       <c r="G225" s="7" t="s">
         <v>577</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I225" s="3">
+        <v>45015.528921643519</v>
+      </c>
+      <c r="J225" s="10" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -10036,8 +10048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD40F3-7BE7-481E-A01F-80BDE89DA2B3}">
   <dimension ref="B3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C689A8B9-4EC7-4B2B-BDE0-C0EDAB4A41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70C682-4D2D-424E-8869-75A5C983AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="595">
   <si>
     <t>No</t>
   </si>
@@ -1774,13 +1774,61 @@
     <t>Bug di menu Plan di Support Release</t>
   </si>
   <si>
-    <t>Gagal parse</t>
-  </si>
-  <si>
     <t>Update code utk parse</t>
   </si>
   <si>
     <t>2.120</t>
+  </si>
+  <si>
+    <t>Update Notif di dashboard ke template notif yang baru sesuai preview di jadwal</t>
+  </si>
+  <si>
+    <t>Gagal parse sheet</t>
+  </si>
+  <si>
+    <t>2.121</t>
+  </si>
+  <si>
+    <t>Membuat API data transaksi untuk DEIS</t>
+  </si>
+  <si>
+    <t>Membuat API data anggaran untuk DEIS</t>
+  </si>
+  <si>
+    <t>Membuat API data renkas mingguan semula untuk DEIS</t>
+  </si>
+  <si>
+    <t>Membuat API data renkas mingguan revisi untuk DEIS</t>
+  </si>
+  <si>
+    <t>Membuat API data renkas bulanan semula untuk DEIS</t>
+  </si>
+  <si>
+    <t>Membuat API data renkas bulanan revisi untuk DEIS</t>
+  </si>
+  <si>
+    <t>2.122</t>
+  </si>
+  <si>
+    <t>2.123</t>
+  </si>
+  <si>
+    <t>2.124</t>
+  </si>
+  <si>
+    <t>2.125</t>
+  </si>
+  <si>
+    <t>2.126</t>
+  </si>
+  <si>
+    <t>2.127</t>
+  </si>
+  <si>
+    <t>Membuat fitur untuk update dari data renkas mingguan ke bulanan</t>
+  </si>
+  <si>
+    <t>2.128</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2171,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3188,10 +3236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J225"/>
+  <dimension ref="B2:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J226" sqref="J226"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9633,10 +9681,10 @@
         <v>575</v>
       </c>
       <c r="F225" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G225" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>60</v>
@@ -9645,7 +9693,239 @@
         <v>45015.528921643519</v>
       </c>
       <c r="J225" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B226" s="1">
+        <v>231</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45015.5312962963</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>578</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I226" s="3">
+        <v>45016.531613078703</v>
+      </c>
+      <c r="J226" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B227" s="1">
+        <v>232</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45016.531783564817</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F227" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I227" s="3">
+        <v>45016.53427974537</v>
+      </c>
+      <c r="J227" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B228" s="1">
+        <v>233</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45016.533477662037</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I228" s="3">
+        <v>45016.534329745373</v>
+      </c>
+      <c r="J228" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B229" s="1">
+        <v>234</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45016.533615972221</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F229" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G229" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I229" s="3">
+        <v>45016.534361458333</v>
+      </c>
+      <c r="J229" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B230" s="1">
+        <v>235</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45016.533872916669</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G230" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I230" s="3">
+        <v>45016.534402662037</v>
+      </c>
+      <c r="J230" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B231" s="1">
+        <v>236</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45016.533941550922</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G231" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I231" s="3">
+        <v>45016.534450925923</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B232" s="1">
+        <v>237</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45016.533971180557</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F232" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G232" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I232" s="3">
+        <v>45016.534496412038</v>
+      </c>
+      <c r="J232" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B233" s="1">
+        <v>238</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45016.535008564817</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I233" s="3">
+        <v>45016.541317708332</v>
+      </c>
+      <c r="J233" s="10" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -9724,7 +10004,7 @@
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(logs!C$5:C$348, "&lt;2023-04-01")</f>
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:D10" si="1">C8</f>
@@ -9732,7 +10012,7 @@
       </c>
       <c r="E9" s="23">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -9741,11 +10021,11 @@
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(logs!C$5:C$348, "&lt;2023-05-01")</f>
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70C682-4D2D-424E-8869-75A5C983AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D5A31-3AE1-4A27-A4EE-71CF2CABA6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="658">
   <si>
     <t>No</t>
   </si>
@@ -1829,6 +1829,195 @@
   </si>
   <si>
     <t>2.128</t>
+  </si>
+  <si>
+    <t>KEBTKE</t>
+  </si>
+  <si>
+    <t>Error di bendahara, tidak dapat melakukan approval</t>
+  </si>
+  <si>
+    <t>Data anggaran pernah salah upload di awal</t>
+  </si>
+  <si>
+    <t>Perbaikan data di beberapa BK yang tidak dapat di-approve</t>
+  </si>
+  <si>
+    <t>Ketika membuat transaksi gaji, ketika error karena pagu habis, tidak muncul notifikasi</t>
+  </si>
+  <si>
+    <t>Belum dibuat notifikasi</t>
+  </si>
+  <si>
+    <t>Dibuat notifikasi pagu habis dan list akun gaji yang pagunya habis</t>
+  </si>
+  <si>
+    <t>2.129</t>
+  </si>
+  <si>
+    <t>Update Bugfix #240</t>
+  </si>
+  <si>
+    <t>Transaksi honor perlu dikasih fitur upload</t>
+  </si>
+  <si>
+    <t>Belum ada fitur upload</t>
+  </si>
+  <si>
+    <t>Menambahkan fitur upload di transaksi honor</t>
+  </si>
+  <si>
+    <t>Rata-rata</t>
+  </si>
+  <si>
+    <t>Melakukan update fitur #242</t>
+  </si>
+  <si>
+    <t>2.130</t>
+  </si>
+  <si>
+    <t>Menambahkan validasi total renkas &lt;= pagu utk renkas mingguan</t>
+  </si>
+  <si>
+    <t>Menambahkan filter di renkas mingguan : Renkas &gt; Pagu</t>
+  </si>
+  <si>
+    <t>Rapat sosialisasi soal renkas</t>
+  </si>
+  <si>
+    <t>Perbaikan data BK yang tidak match antara MAK transaksi dg anggaran</t>
+  </si>
+  <si>
+    <t>Kesalahan data</t>
+  </si>
+  <si>
+    <t>Memperbaiki data MAK bukti kas</t>
+  </si>
+  <si>
+    <t>Nilai deviasi di dashboard terbalik antara positif dan negatif</t>
+  </si>
+  <si>
+    <t>Cara menghitung deviasi salah</t>
+  </si>
+  <si>
+    <t>Memperbaiki perhitungan deviasi menjadi : Real. SP2D - Renkas Riil</t>
+  </si>
+  <si>
+    <t>Bug di editor mingguan ketika di klik selesai tdk terkunci</t>
+  </si>
+  <si>
+    <t>Salah query</t>
+  </si>
+  <si>
+    <t>Memperbaiki query agar editor mingguan terkunci ketika selesai</t>
+  </si>
+  <si>
+    <t>2.131</t>
+  </si>
+  <si>
+    <t>2.132</t>
+  </si>
+  <si>
+    <t>2.133</t>
+  </si>
+  <si>
+    <t>2.134</t>
+  </si>
+  <si>
+    <t>IKA, PEM</t>
+  </si>
+  <si>
+    <t>Update Fitur dan Bugfix #246, #247, #248, #249</t>
+  </si>
+  <si>
+    <t>Menghilangkan list data konkin belum selesai mingguan agar tdk membingungkan user konkin di update selanjutnya</t>
+  </si>
+  <si>
+    <t>2.135</t>
+  </si>
+  <si>
+    <t>Update #250</t>
+  </si>
+  <si>
+    <t>Terdapat transaksi hilang di kasir padahal di notif ada</t>
+  </si>
+  <si>
+    <t>Salah data</t>
+  </si>
+  <si>
+    <t>Memperbaiki data di DB</t>
+  </si>
+  <si>
+    <t>Memperbaiki data BK yang tidak dapat di-approve di bendahara</t>
+  </si>
+  <si>
+    <t>Salah MAK</t>
+  </si>
+  <si>
+    <t>Memperbaiki MAK BK yang bermasalah di DB</t>
+  </si>
+  <si>
+    <t>Handover</t>
+  </si>
+  <si>
+    <t>Membuat akun google fresh dan vultr untuk handover server</t>
+  </si>
+  <si>
+    <t>Membuat fitur generate Apikey untuk meningkatkan keamanan data per satker ketika integrasi dengan DEIS</t>
+  </si>
+  <si>
+    <t>Rapat dengan SetBPSDM soal API SIK-DEIS</t>
+  </si>
+  <si>
+    <t>2.136</t>
+  </si>
+  <si>
+    <t>Peningkatan Keamanan</t>
+  </si>
+  <si>
+    <t>Membuat fitur generate apikey SIK-DEIS</t>
+  </si>
+  <si>
+    <t>Error BK 2304000392 tidak dapat diedit</t>
+  </si>
+  <si>
+    <t>Bug di fitur upload</t>
+  </si>
+  <si>
+    <t>Memperbaiki fitur upload</t>
+  </si>
+  <si>
+    <t>2.137</t>
+  </si>
+  <si>
+    <t>Update Fitur #256</t>
+  </si>
+  <si>
+    <t>Update Bugfix #258</t>
+  </si>
+  <si>
+    <t>Penambahan kategori belanja di menu anggaran untuk keperluan API DEIS</t>
+  </si>
+  <si>
+    <t>Penambahan fitur upload file SPM dan SP2D di kasir</t>
+  </si>
+  <si>
+    <t>Bug di pembayaran kasir</t>
+  </si>
+  <si>
+    <t>2.138</t>
+  </si>
+  <si>
+    <t>2.139</t>
+  </si>
+  <si>
+    <t>2.140</t>
+  </si>
+  <si>
+    <t>2.141</t>
+  </si>
+  <si>
+    <t>Update source code dgn contoh DB</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +2065,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1899,11 +2088,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1965,6 +2191,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2174,7 +2409,7 @@
                   <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J233"/>
+  <dimension ref="B2:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9928,6 +10163,780 @@
         <v>594</v>
       </c>
     </row>
+    <row r="234" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B234" s="1">
+        <v>239</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45019.47992766204</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G234" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I234" s="3">
+        <v>45019.481099074073</v>
+      </c>
+      <c r="J234" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B235" s="1">
+        <v>240</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45019.481267129631</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F235" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I235" s="3">
+        <v>45019.482014699075</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B236" s="1">
+        <v>241</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45019.482176273152</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F236" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I236" s="3">
+        <v>45019.482672685182</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B237" s="1">
+        <v>242</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45020.345721759259</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I237" s="3">
+        <v>45020.477527777781</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B238" s="1">
+        <v>243</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45020.348400115741</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H238" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I238" s="3">
+        <v>45020.477674305555</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B239" s="1">
+        <v>244</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45020.64241458333</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I239" s="3">
+        <v>45020.643063078707</v>
+      </c>
+      <c r="J239" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B240" s="1">
+        <v>245</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45020.643223495368</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I240" s="3">
+        <v>45020.64383090278</v>
+      </c>
+      <c r="J240" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B241" s="1">
+        <v>246</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45021.340788541667</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I241" s="3">
+        <v>45021.360835648149</v>
+      </c>
+      <c r="J241" s="10" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B242" s="1">
+        <v>247</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45021.340851620371</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G242" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I242" s="3">
+        <v>45021.360899768515</v>
+      </c>
+      <c r="J242" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B243" s="1">
+        <v>248</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45021.344529861111</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G243" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I243" s="3">
+        <v>45021.346655324072</v>
+      </c>
+      <c r="J243" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B244" s="1">
+        <v>249</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45021.359981018519</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F244" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I244" s="3">
+        <v>45021.360604745372</v>
+      </c>
+      <c r="J244" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B245" s="1">
+        <v>250</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45021.36120983796</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F245" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I245" s="3">
+        <v>45021.367537268517</v>
+      </c>
+      <c r="J245" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B246" s="1">
+        <v>251</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45021.366723611114</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I246" s="3">
+        <v>45021.607996643521</v>
+      </c>
+      <c r="J246" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B247" s="1">
+        <v>252</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45021.608385879626</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F247" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H247" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I247" s="3">
+        <v>45021.608474189816</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B248" s="1">
+        <v>253</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45021.608618634258</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="G248" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I248" s="3">
+        <v>45021.609085300923</v>
+      </c>
+      <c r="J248" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B249" s="1">
+        <v>254</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45021.609336921298</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G249" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I249" s="3">
+        <v>45021.609897685186</v>
+      </c>
+      <c r="J249" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B250" s="1">
+        <v>255</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45026.371186805554</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B251" s="1">
+        <v>256</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45026.385152777781</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I251" s="3">
+        <v>45026.441867013891</v>
+      </c>
+      <c r="J251" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B252" s="1">
+        <v>257</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45026.54210648148</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I252" s="3">
+        <v>45026.083831018521</v>
+      </c>
+      <c r="J252" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B253" s="1">
+        <v>258</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45028.356064814812</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I253" s="3">
+        <v>45028.648912037039</v>
+      </c>
+      <c r="J253" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B254" s="1">
+        <v>259</v>
+      </c>
+      <c r="C254" s="2">
+        <v>45028.648912037039</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F254" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G254" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I254" s="3">
+        <v>45028.662800925929</v>
+      </c>
+      <c r="J254" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B255" s="1">
+        <v>260</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45029.358989699074</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I255" s="3">
+        <v>45029.359715856481</v>
+      </c>
+      <c r="J255" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B256" s="1">
+        <v>261</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I256" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B257" s="1">
+        <v>262</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I257" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="J257" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B258" s="1">
+        <v>263</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I258" s="2">
+        <v>45049.465729166666</v>
+      </c>
+      <c r="J258" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B259" s="1">
+        <v>264</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45050.471377314818</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I259" s="2">
+        <v>45050.471377314818</v>
+      </c>
+      <c r="J259" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B260" s="1">
+        <v>265</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45050.471377314818</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G260" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H260" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I260" s="2">
+        <v>45050.471377314818</v>
+      </c>
+      <c r="J260" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B4:J24" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9941,11 +10950,12 @@
   <dimension ref="B6:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
@@ -9970,7 +10980,7 @@
         <v>569</v>
       </c>
       <c r="C7" s="23">
-        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-02-01")</f>
+        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-02-01")</f>
         <v>51</v>
       </c>
       <c r="D7" s="23">
@@ -9986,7 +10996,7 @@
         <v>570</v>
       </c>
       <c r="C8" s="23">
-        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-03-01")</f>
+        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-03-01")</f>
         <v>97</v>
       </c>
       <c r="D8" s="23">
@@ -10003,7 +11013,7 @@
         <v>317</v>
       </c>
       <c r="C9" s="23">
-        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-04-01")</f>
+        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-04-01")</f>
         <v>229</v>
       </c>
       <c r="D9" s="23">
@@ -10020,8 +11030,8 @@
         <v>329</v>
       </c>
       <c r="C10" s="23">
-        <f>COUNTIF(logs!C$5:C$348, "&lt;2023-05-01")</f>
-        <v>229</v>
+        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-05-01")</f>
+        <v>251</v>
       </c>
       <c r="D10" s="23">
         <f t="shared" si="1"/>
@@ -10029,13 +11039,27 @@
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C11" s="25">
+        <f>C10/4</f>
+        <v>62.75</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10140,7 +11164,7 @@
   <dimension ref="B3:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11100,18 +12124,18 @@
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D5A31-3AE1-4A27-A4EE-71CF2CABA6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1E781-A9AE-4FFB-B4CF-8A85F9B331F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="665">
   <si>
     <t>No</t>
   </si>
@@ -2018,6 +2018,27 @@
   </si>
   <si>
     <t>Update source code dgn contoh DB</t>
+  </si>
+  <si>
+    <t>Transaksi Approved tidak semua muncul di Koordinator</t>
+  </si>
+  <si>
+    <t>2.142</t>
+  </si>
+  <si>
+    <t>Jika di dashboard 0.00% tapi sisanya di bawah 0 -&gt; warna merah</t>
+  </si>
+  <si>
+    <t>Warna diganti hijau</t>
+  </si>
+  <si>
+    <t>2.143</t>
+  </si>
+  <si>
+    <t>Update #266 dan #267</t>
+  </si>
+  <si>
+    <t>Upload v 2.143</t>
   </si>
 </sst>
 </file>
@@ -3471,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J260"/>
+  <dimension ref="B2:J264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="E245" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10935,6 +10956,122 @@
       </c>
       <c r="J260" s="10" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B261" s="1">
+        <v>266</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45063.634859606478</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G261" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I261" s="3">
+        <v>45063.635375694445</v>
+      </c>
+      <c r="J261" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B262" s="1">
+        <v>267</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45063.634859606478</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G262" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I262" s="3">
+        <v>45063.635375694445</v>
+      </c>
+      <c r="J262" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B263" s="1">
+        <v>268</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45063.634859606478</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G263" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H263" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I263" s="3">
+        <v>45063.635375694445</v>
+      </c>
+      <c r="J263" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B264" s="1">
+        <v>269</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45063.634859606478</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G264" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H264" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I264" s="3">
+        <v>45063.635375694445</v>
+      </c>
+      <c r="J264" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1E781-A9AE-4FFB-B4CF-8A85F9B331F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11983033-0F9A-4525-BB22-9EEF93173D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="673">
   <si>
     <t>No</t>
   </si>
@@ -2039,6 +2039,30 @@
   </si>
   <si>
     <t>Upload v 2.143</t>
+  </si>
+  <si>
+    <t>Notifikasi transaksi belum disetujui tidak muncul di user Ver PPK dan PPK</t>
+  </si>
+  <si>
+    <t>2.144</t>
+  </si>
+  <si>
+    <t>Belum divalidasi</t>
+  </si>
+  <si>
+    <t>Validasi ketika submit</t>
+  </si>
+  <si>
+    <t>2.145</t>
+  </si>
+  <si>
+    <t>Update Bugfix #269 dan #270</t>
+  </si>
+  <si>
+    <t>Upload v 2.145</t>
+  </si>
+  <si>
+    <t>Tgl SPM dan Tgl SP2D bisa salah value (0003-mm-dd)</t>
   </si>
 </sst>
 </file>
@@ -3492,10 +3516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J264"/>
+  <dimension ref="B2:J268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+    <sheetView tabSelected="1" topLeftCell="D250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11072,6 +11096,122 @@
       </c>
       <c r="J264" s="10" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B265" s="1">
+        <v>269</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45072.654542824072</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I265" s="3">
+        <v>45072.655149421298</v>
+      </c>
+      <c r="J265" s="10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B266" s="1">
+        <v>270</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45072.655347222222</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G266" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="H266" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I266" s="3">
+        <v>45072.657512847225</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B267" s="1">
+        <v>271</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45072.658411111108</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I267" s="3">
+        <v>45072.658753819444</v>
+      </c>
+      <c r="J267" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B268" s="1">
+        <v>272</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45072.658931944447</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I268" s="3">
+        <v>45072.659305092595</v>
+      </c>
+      <c r="J268" s="10" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11983033-0F9A-4525-BB22-9EEF93173D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E6149-D52F-4445-8624-EAAFD60EBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="678">
   <si>
     <t>No</t>
   </si>
@@ -2063,6 +2063,21 @@
   </si>
   <si>
     <t>Tgl SPM dan Tgl SP2D bisa salah value (0003-mm-dd)</t>
+  </si>
+  <si>
+    <t>Bug di perhitungan persen realisasi di laporan realisasi</t>
+  </si>
+  <si>
+    <t>Salah hitung</t>
+  </si>
+  <si>
+    <t>Memperbaiki perhitungan</t>
+  </si>
+  <si>
+    <t>2.146</t>
+  </si>
+  <si>
+    <t>Update Bugfix #273</t>
   </si>
 </sst>
 </file>
@@ -3516,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J268"/>
+  <dimension ref="B2:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" topLeftCell="E250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11212,6 +11227,64 @@
       </c>
       <c r="J268" s="10" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B269" s="1">
+        <v>273</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45086.366270254628</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G269" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H269" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I269" s="3">
+        <v>45086.366818981478</v>
+      </c>
+      <c r="J269" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B270" s="1">
+        <v>274</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45086.367000115744</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I270" s="3">
+        <v>45086.367460648151</v>
+      </c>
+      <c r="J270" s="10" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E6149-D52F-4445-8624-EAAFD60EBC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9216C-535C-4F0D-B41B-24FA5D389BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="715">
   <si>
     <t>No</t>
   </si>
@@ -2078,6 +2078,117 @@
   </si>
   <si>
     <t>Update Bugfix #273</t>
+  </si>
+  <si>
+    <t>Agar Tgl SPM dan SP2D tidak bisa input tanggal maju, max hari ini</t>
+  </si>
+  <si>
+    <t>Perbaikan deteksi children akun huruf pada tree akun di modul pindah MAK agar list akun muncul ketika kode MAK index 13 berbeda</t>
+  </si>
+  <si>
+    <t>Penambahan alert ketika saldo pagu tidak cukup di frontend belanja</t>
+  </si>
+  <si>
+    <t>Proteksi drag drop pindah MAK hanya bisa drag drop ke level akun untuk mencegah error</t>
+  </si>
+  <si>
+    <t>Perbaikan data BDTBT, level akun tidak muncul pada tree anggaran pindah MAK</t>
+  </si>
+  <si>
+    <t>Perbaikan bug di detail transaksi. File yang di-upload tidak dapat di-download</t>
+  </si>
+  <si>
+    <t>Mengubah limit input tanggal SPM dan SP2D open s.d 4 hari setelah hari sekarang</t>
+  </si>
+  <si>
+    <t>Update DB row nama kota tujuan SPPD V1 dibuat unik</t>
+  </si>
+  <si>
+    <t>Penambahan modul manajemen kota/provinsi tujuan SPPD V1 untuk PEM</t>
+  </si>
+  <si>
+    <t>Update modul jadwal renkas menyesuaikan integrasi dengan DEIS</t>
+  </si>
+  <si>
+    <t>Update API jadwal renkas mengarah ke server DEIS</t>
+  </si>
+  <si>
+    <t>Menambahkan alert/notifikasi di SIK ketika jadwal renkas di DEIS terbuka/memenuhi kriteria</t>
+  </si>
+  <si>
+    <t>Export SP2D dibuat menampilkan nominal untuk memudahkan komparasi data dengan SAKTI</t>
+  </si>
+  <si>
+    <t>Menambahkan data yang lebih lengkap pada fitur cetak grup SP2D untuk keperluan laporan</t>
+  </si>
+  <si>
+    <t>SBP, PEM</t>
+  </si>
+  <si>
+    <t>2.147</t>
+  </si>
+  <si>
+    <t>2.148</t>
+  </si>
+  <si>
+    <t>2.149</t>
+  </si>
+  <si>
+    <t>2.150</t>
+  </si>
+  <si>
+    <t>2.151</t>
+  </si>
+  <si>
+    <t>2.152</t>
+  </si>
+  <si>
+    <t>2.153</t>
+  </si>
+  <si>
+    <t>2.154</t>
+  </si>
+  <si>
+    <t>2.155</t>
+  </si>
+  <si>
+    <t>2.156</t>
+  </si>
+  <si>
+    <t>2.157</t>
+  </si>
+  <si>
+    <t>2.158</t>
+  </si>
+  <si>
+    <t>2.159</t>
+  </si>
+  <si>
+    <t>2.160</t>
+  </si>
+  <si>
+    <t>Diskusi (pendampingan) dengan PPSDM KEBTKE via zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perbaikan urutan </t>
+  </si>
+  <si>
+    <t>Sosialisasi Fitur Renkas baru dan integrasi dengan DEIS</t>
+  </si>
+  <si>
+    <t>2.161</t>
+  </si>
+  <si>
+    <t>Bugfix update tanggal SPM dan SP2D di H+4</t>
+  </si>
+  <si>
+    <t>2.162</t>
+  </si>
+  <si>
+    <t>Update source code ke 2.162</t>
+  </si>
+  <si>
+    <t>Update Versi</t>
   </si>
 </sst>
 </file>
@@ -3531,10 +3642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J270"/>
+  <dimension ref="B2:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G269" sqref="G269"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11285,6 +11396,557 @@
       </c>
       <c r="J270" s="10" t="s">
         <v>676</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B271" s="1">
+        <v>275</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45086.425694907404</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I271" s="2">
+        <v>45086.425694907404</v>
+      </c>
+      <c r="J271" s="10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B272" s="1">
+        <v>276</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45117.425694444442</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H272" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I272" s="2">
+        <v>45148.425694444442</v>
+      </c>
+      <c r="J272" s="10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B273" s="1">
+        <v>277</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45119.425694444442</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G273" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H273" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I273" s="2">
+        <v>45150.425694444442</v>
+      </c>
+      <c r="J273" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B274" s="1">
+        <v>278</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45121.425694444442</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I274" s="2">
+        <v>45152.425694386577</v>
+      </c>
+      <c r="J274" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B275" s="1">
+        <v>279</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45123.425694444442</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I275" s="2">
+        <v>45154.425694386577</v>
+      </c>
+      <c r="J275" s="10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B276" s="1">
+        <v>280</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45125.425694444442</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I276" s="2">
+        <v>45156.425694386577</v>
+      </c>
+      <c r="J276" s="10" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B277" s="1">
+        <v>281</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45127.425694444442</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I277" s="2">
+        <v>45158.425694386577</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B278" s="1">
+        <v>282</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45129.425694444442</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I278" s="2">
+        <v>45160.425694386577</v>
+      </c>
+      <c r="J278" s="10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B279" s="1">
+        <v>283</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45131.425694444442</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I279" s="2">
+        <v>45162.425694386577</v>
+      </c>
+      <c r="J279" s="10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B280" s="1">
+        <v>284</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45133.425694444442</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I280" s="2">
+        <v>45164.425694386577</v>
+      </c>
+      <c r="J280" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B281" s="1">
+        <v>285</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45137.425694444442</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I281" s="2">
+        <v>45168.425694386577</v>
+      </c>
+      <c r="J281" s="10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B282" s="1">
+        <v>286</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45139.425694444442</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G282" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I282" s="2">
+        <v>45170.425694386577</v>
+      </c>
+      <c r="J282" s="10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B283" s="1">
+        <v>287</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45141.425694444442</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I283" s="2">
+        <v>45172.425694386577</v>
+      </c>
+      <c r="J283" s="10" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B284" s="1">
+        <v>288</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45143.425694444442</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I284" s="2">
+        <v>45174.425694386577</v>
+      </c>
+      <c r="J284" s="10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B285" s="1">
+        <v>289</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45146.425694444442</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H285" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I285" s="2">
+        <v>45166.425694386577</v>
+      </c>
+      <c r="J285" s="10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B286" s="1">
+        <v>290</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45152.385439814818</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I286" s="3">
+        <v>45152.584818171294</v>
+      </c>
+      <c r="J286" s="10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B287" s="1">
+        <v>291</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45152.583624421299</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I287" s="3">
+        <v>45152.584888078702</v>
+      </c>
+      <c r="J287" s="10" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B288" s="1">
+        <v>292</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45152.585119560186</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H288" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I288" s="3">
+        <v>45152.585577430553</v>
+      </c>
+      <c r="J288" s="10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B289" s="1">
+        <v>292</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45152.585973842593</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I289" s="3">
+        <v>45152.586242476849</v>
+      </c>
+      <c r="J289" s="10" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -11330,7 +11992,7 @@
         <v>569</v>
       </c>
       <c r="C7" s="23">
-        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-02-01")</f>
+        <f>COUNTIF(logs!C$5:C$341, "&lt;2023-02-01")</f>
         <v>51</v>
       </c>
       <c r="D7" s="23">
@@ -11346,7 +12008,7 @@
         <v>570</v>
       </c>
       <c r="C8" s="23">
-        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-03-01")</f>
+        <f>COUNTIF(logs!C$5:C$341, "&lt;2023-03-01")</f>
         <v>97</v>
       </c>
       <c r="D8" s="23">
@@ -11363,7 +12025,7 @@
         <v>317</v>
       </c>
       <c r="C9" s="23">
-        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-04-01")</f>
+        <f>COUNTIF(logs!C$5:C$341, "&lt;2023-04-01")</f>
         <v>229</v>
       </c>
       <c r="D9" s="23">
@@ -11380,7 +12042,7 @@
         <v>329</v>
       </c>
       <c r="C10" s="23">
-        <f>COUNTIF(logs!C$5:C$342, "&lt;2023-05-01")</f>
+        <f>COUNTIF(logs!C$5:C$341, "&lt;2023-05-01")</f>
         <v>251</v>
       </c>
       <c r="D10" s="23">

--- a/SIK_RELEASE_NOTES.xlsx
+++ b/SIK_RELEASE_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BPSDM\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9216C-535C-4F0D-B41B-24FA5D389BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A088986-4CAC-4576-8A40-1164A858535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A22B53D9-1797-48E0-BE42-81F2E96BDD13}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="731">
   <si>
     <t>No</t>
   </si>
@@ -2189,6 +2189,54 @@
   </si>
   <si>
     <t>Update Versi</t>
+  </si>
+  <si>
+    <t>Bug realisasi konkin di SBP</t>
+  </si>
+  <si>
+    <t>Penambahan fitur refresh data untuk menghapus data residu ketika import renkas</t>
+  </si>
+  <si>
+    <t>2.163</t>
+  </si>
+  <si>
+    <t>2.164</t>
+  </si>
+  <si>
+    <t>Bugfix api realisasi dan renkas</t>
+  </si>
+  <si>
+    <t>2.165</t>
+  </si>
+  <si>
+    <t>Menambahkan tanggal SP2D pada export excel pada grup pengesahan</t>
+  </si>
+  <si>
+    <t>2.166</t>
+  </si>
+  <si>
+    <t>Auto update no sp2d dan tanggal sp2d ketika grouping pengesahan. Penting ketika ada transaksi yang terlambat grouping</t>
+  </si>
+  <si>
+    <t>2.167</t>
+  </si>
+  <si>
+    <t>Auto Refresh Data SP2D ketika ada transaksi yang data groupingnya belum lengkap</t>
+  </si>
+  <si>
+    <t>2.168</t>
+  </si>
+  <si>
+    <t>Update API ke DEIS nilai % deviasi terhadap pagu</t>
+  </si>
+  <si>
+    <t>2.169</t>
+  </si>
+  <si>
+    <t>Update source ke V2.168</t>
+  </si>
+  <si>
+    <t>Update source ke V2.169</t>
   </si>
 </sst>
 </file>
@@ -3642,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF09FD-59C4-4840-BE23-609ECB27DAEC}">
-  <dimension ref="B2:J289"/>
+  <dimension ref="B2:J298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="E282" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J299" sqref="J299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11947,6 +11995,267 @@
       </c>
       <c r="J289" s="10" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B290" s="1">
+        <v>293</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45157.358941550927</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H290" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I290" s="3">
+        <v>45157.359286689818</v>
+      </c>
+      <c r="J290" s="10" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B291" s="1">
+        <v>294</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45157.358941550927</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H291" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I291" s="3">
+        <v>45157.35934328704</v>
+      </c>
+      <c r="J291" s="10" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B292" s="1">
+        <v>295</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45157.511193287035</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H292" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I292" s="3">
+        <v>45157.511300578706</v>
+      </c>
+      <c r="J292" s="10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B293" s="1">
+        <v>296</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45160.761627199077</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I293" s="3">
+        <v>45160.76209571759</v>
+      </c>
+      <c r="J293" s="10" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B294" s="1">
+        <v>297</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45163.592566550928</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H294" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I294" s="3">
+        <v>45163.593428009262</v>
+      </c>
+      <c r="J294" s="10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B295" s="1">
+        <v>298</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45163.593648726855</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H295" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I295" s="3">
+        <v>45163.594146064817</v>
+      </c>
+      <c r="J295" s="10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B296" s="1">
+        <v>299</v>
+      </c>
+      <c r="C296" s="2">
+        <v>45163.660582986115</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H296" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I296" s="3">
+        <v>45163.66732789352</v>
+      </c>
+      <c r="J296" s="10" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B297" s="1">
+        <v>300</v>
+      </c>
+      <c r="C297" s="2">
+        <v>45163.666780324071</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H297" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I297" s="3">
+        <v>45163.661036342593</v>
+      </c>
+      <c r="J297" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B298" s="1">
+        <v>301</v>
+      </c>
+      <c r="C298" s="2">
+        <v>45163.667566898148</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H298" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I298" s="3">
+        <v>45163.66789178241</v>
+      </c>
+      <c r="J298" s="10" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
